--- a/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.39203979116436</v>
+        <v>26.39203979116444</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>77.89509160013067</v>
+        <v>77.89509160013077</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.10423863194741</v>
+        <v>24.10423863194743</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>14.22536213877405</v>
+        <v>14.22536213877416</v>
       </c>
       <c r="E3">
-        <v>27.49467172297802</v>
+        <v>27.49467172297816</v>
       </c>
       <c r="F3">
-        <v>69.46483277671214</v>
+        <v>69.46483277671248</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.58073308216565</v>
+        <v>14.58073308216572</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>70.74039564320374</v>
+        <v>70.74039564320401</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.72256416907961</v>
+        <v>22.72256416907965</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>13.14967240137984</v>
+        <v>13.14967240137994</v>
       </c>
       <c r="E4">
-        <v>25.94344488814562</v>
+        <v>25.94344488814564</v>
       </c>
       <c r="F4">
-        <v>64.07298312376423</v>
+        <v>64.07298312376496</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.88423573406438</v>
+        <v>13.88423573406433</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>66.50293899674365</v>
+        <v>66.50293899674364</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.15817637035609</v>
+        <v>22.15817637035608</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.7254578391335</v>
+        <v>12.7254578391336</v>
       </c>
       <c r="E5">
-        <v>25.31424824700645</v>
+        <v>25.31424824700643</v>
       </c>
       <c r="F5">
-        <v>61.96325859414456</v>
+        <v>61.96325859414438</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.60184941464721</v>
+        <v>13.60184941464722</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>64.78634891121406</v>
+        <v>64.78634891121379</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.06423793810764</v>
+        <v>22.06423793810772</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.65563755599015</v>
+        <v>12.65563755599038</v>
       </c>
       <c r="E6">
-        <v>25.20974821639872</v>
+        <v>25.20974821639883</v>
       </c>
       <c r="F6">
-        <v>61.61705893659566</v>
+        <v>61.6170589365963</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.55497614910171</v>
+        <v>13.55497614910172</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>64.50135958794715</v>
+        <v>64.50135958794729</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.71496478809085</v>
+        <v>22.71496478809092</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>13.14390519135893</v>
+        <v>13.143905191359</v>
       </c>
       <c r="E7">
-        <v>25.93495694995671</v>
+        <v>25.93495694995691</v>
       </c>
       <c r="F7">
-        <v>64.04423205379761</v>
+        <v>64.04423205379797</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.88042489489244</v>
+        <v>13.88042489489257</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>66.47977412913275</v>
+        <v>66.47977412913313</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E8">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F8">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E9">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F9">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E10">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F10">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E11">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F11">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E12">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F12">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E13">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F13">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E14">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F14">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E15">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F15">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E16">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F16">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E17">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F17">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E18">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F18">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E19">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F19">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E20">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F20">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E21">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F21">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E22">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F22">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E23">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F23">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E24">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F24">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.59250926837147</v>
+        <v>25.59250926837148</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>15.45268414779553</v>
+        <v>15.45268414779562</v>
       </c>
       <c r="E25">
-        <v>29.18665832309772</v>
+        <v>29.18665832309776</v>
       </c>
       <c r="F25">
-        <v>75.67407537401924</v>
+        <v>75.6740753740193</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.33832580268876</v>
+        <v>15.3383258026888</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>75.37181003227845</v>
+        <v>75.37181003227852</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.39203979116444</v>
+        <v>26.39203979116436</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>77.89509160013077</v>
+        <v>77.89509160013067</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.10423863194743</v>
+        <v>24.10423863194741</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>14.22536213877416</v>
+        <v>14.22536213877405</v>
       </c>
       <c r="E3">
-        <v>27.49467172297816</v>
+        <v>27.49467172297802</v>
       </c>
       <c r="F3">
-        <v>69.46483277671248</v>
+        <v>69.46483277671214</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.58073308216572</v>
+        <v>14.58073308216565</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>70.74039564320401</v>
+        <v>70.74039564320374</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.72256416907965</v>
+        <v>22.72256416907961</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>13.14967240137994</v>
+        <v>13.14967240137984</v>
       </c>
       <c r="E4">
-        <v>25.94344488814564</v>
+        <v>25.94344488814562</v>
       </c>
       <c r="F4">
-        <v>64.07298312376496</v>
+        <v>64.07298312376423</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.88423573406433</v>
+        <v>13.88423573406438</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>66.50293899674364</v>
+        <v>66.50293899674365</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.15817637035608</v>
+        <v>22.15817637035609</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.7254578391336</v>
+        <v>12.7254578391335</v>
       </c>
       <c r="E5">
-        <v>25.31424824700643</v>
+        <v>25.31424824700645</v>
       </c>
       <c r="F5">
-        <v>61.96325859414438</v>
+        <v>61.96325859414456</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.60184941464722</v>
+        <v>13.60184941464721</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>64.78634891121379</v>
+        <v>64.78634891121406</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.06423793810772</v>
+        <v>22.06423793810764</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.65563755599038</v>
+        <v>12.65563755599015</v>
       </c>
       <c r="E6">
-        <v>25.20974821639883</v>
+        <v>25.20974821639872</v>
       </c>
       <c r="F6">
-        <v>61.6170589365963</v>
+        <v>61.61705893659566</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.55497614910172</v>
+        <v>13.55497614910171</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>64.50135958794729</v>
+        <v>64.50135958794715</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.71496478809092</v>
+        <v>22.71496478809085</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>13.143905191359</v>
+        <v>13.14390519135893</v>
       </c>
       <c r="E7">
-        <v>25.93495694995691</v>
+        <v>25.93495694995671</v>
       </c>
       <c r="F7">
-        <v>64.04423205379797</v>
+        <v>64.04423205379761</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.88042489489257</v>
+        <v>13.88042489489244</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>66.47977412913313</v>
+        <v>66.47977412913275</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E8">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F8">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E9">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F9">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E10">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F10">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E11">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F11">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E12">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F12">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E13">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F13">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E14">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F14">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E15">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F15">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E16">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F16">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E17">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F17">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E18">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F18">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E19">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F19">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E20">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F20">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E21">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F21">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E22">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F22">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E23">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F23">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E24">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F24">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.59250926837148</v>
+        <v>25.59250926837147</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>15.45268414779562</v>
+        <v>15.45268414779553</v>
       </c>
       <c r="E25">
-        <v>29.18665832309776</v>
+        <v>29.18665832309772</v>
       </c>
       <c r="F25">
-        <v>75.6740753740193</v>
+        <v>75.67407537401924</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.3383258026888</v>
+        <v>15.33832580268876</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>75.37181003227852</v>
+        <v>75.37181003227845</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.39203979116436</v>
+        <v>26.27194507738005</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>16.14706443261342</v>
+        <v>15.84791283154643</v>
       </c>
       <c r="E2">
-        <v>30.10700363563145</v>
+        <v>29.84902601347328</v>
       </c>
       <c r="F2">
-        <v>79.20664702470364</v>
+        <v>78.05569582345402</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.748163854579323</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.74812371091472</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>15.67474936587463</v>
       </c>
       <c r="K2">
-        <v>77.89509160013067</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>77.3769297384282</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.10423863194741</v>
+        <v>24.00786229183867</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>14.22536213877405</v>
+        <v>13.97085941682391</v>
       </c>
       <c r="E3">
-        <v>27.49467172297802</v>
+        <v>27.26660968549963</v>
       </c>
       <c r="F3">
-        <v>69.46483277671214</v>
+        <v>68.57839180201867</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.815943103388222</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.58073308216565</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>14.48216632633404</v>
       </c>
       <c r="K3">
-        <v>70.74039564320374</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>70.31777551017682</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.72256416907961</v>
+        <v>22.63698184491206</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>13.14967240137984</v>
+        <v>12.91596352242454</v>
       </c>
       <c r="E4">
-        <v>25.94344488814562</v>
+        <v>25.72679940507135</v>
       </c>
       <c r="F4">
-        <v>64.07298312376423</v>
+        <v>63.31983294702037</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.852923883080241</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.88423573406438</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>13.78671095090376</v>
       </c>
       <c r="K4">
-        <v>66.50293899674365</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>66.12282672959957</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.15817637035609</v>
+        <v>22.07652501899113</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.7254578391335</v>
+        <v>12.49944613446189</v>
       </c>
       <c r="E5">
-        <v>25.31424824700645</v>
+        <v>25.10126040126859</v>
       </c>
       <c r="F5">
-        <v>61.96325859414456</v>
+        <v>61.26169237451573</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.867291800679101</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.60184941464721</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>13.50436712801626</v>
       </c>
       <c r="K5">
-        <v>64.78634891121406</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>64.42149228636751</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.06423793810764</v>
+        <v>21.98321898499842</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.65563755599015</v>
+        <v>12.43087170981058</v>
       </c>
       <c r="E6">
-        <v>25.20974821639872</v>
+        <v>24.99731968715789</v>
       </c>
       <c r="F6">
-        <v>61.61705893659566</v>
+        <v>60.92397051423534</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.869644296477264</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.55497614910171</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>13.45748161403484</v>
       </c>
       <c r="K6">
-        <v>64.50135958794715</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>64.13894400174364</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.71496478809085</v>
+        <v>22.62943698835546</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>13.14390519135893</v>
+        <v>12.91030255310778</v>
       </c>
       <c r="E7">
-        <v>25.93495694995671</v>
+        <v>25.71836423526823</v>
       </c>
       <c r="F7">
-        <v>64.04423205379761</v>
+        <v>63.29178488367497</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.853120062574834</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.88042489489244</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>13.78290204782731</v>
       </c>
       <c r="K7">
-        <v>66.47977412913275</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>66.0998743863374</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.59250926837147</v>
+        <v>25.48182671050707</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>15.45268414779553</v>
+        <v>15.1711383049199</v>
       </c>
       <c r="E8">
-        <v>29.18665832309772</v>
+        <v>28.9411563171607</v>
       </c>
       <c r="F8">
-        <v>75.67407537401924</v>
+        <v>74.6246468157813</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.772880985067864</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>15.23675484147963</v>
       </c>
       <c r="K8">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>74.89182693212794</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E9">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F9">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K9">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E10">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F10">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K10">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E11">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F11">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K11">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E12">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F12">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K12">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E13">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F13">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K13">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E14">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F14">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K14">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E15">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F15">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K15">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E16">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F16">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K16">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E17">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F17">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K17">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E18">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F18">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K18">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E19">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F19">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K19">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E20">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F20">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K20">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E21">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F21">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K21">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E22">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F22">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K22">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E23">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F23">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K23">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E24">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F24">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K24">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.59250926837147</v>
+        <v>32.60905096622164</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>15.45268414779553</v>
+        <v>22.86000140685587</v>
       </c>
       <c r="E25">
-        <v>29.18665832309772</v>
+        <v>37.74041593555536</v>
       </c>
       <c r="F25">
-        <v>75.67407537401924</v>
+        <v>113.743954375206</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.47740542964017</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.33832580268876</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>19.04221850315353</v>
       </c>
       <c r="K25">
-        <v>75.37181003227845</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>98.93915850861937</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.27194507738005</v>
+        <v>23.58472169830562</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>15.84791283154643</v>
+        <v>10.27392399361854</v>
       </c>
       <c r="E2">
-        <v>29.84902601347328</v>
+        <v>44.34649187269021</v>
       </c>
       <c r="F2">
-        <v>78.05569582345402</v>
+        <v>70.90226321489938</v>
       </c>
       <c r="G2">
-        <v>1.748163854579323</v>
+        <v>1.89039167788676</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.67474936587463</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>77.3769297384282</v>
+        <v>17.85580504035278</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>11.64502906710953</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.00786229183867</v>
+        <v>21.79888588629066</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.97085941682391</v>
+        <v>9.385254893433954</v>
       </c>
       <c r="E3">
-        <v>27.26660968549963</v>
+        <v>40.81141603283244</v>
       </c>
       <c r="F3">
-        <v>68.57839180201867</v>
+        <v>64.97312745192745</v>
       </c>
       <c r="G3">
-        <v>1.815943103388222</v>
+        <v>1.924779368595413</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.48216632633404</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>70.31777551017682</v>
+        <v>16.43659406507264</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>12.09630510461154</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.63698184491206</v>
+        <v>20.7761510037166</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.91596352242454</v>
+        <v>8.923920721275318</v>
       </c>
       <c r="E4">
-        <v>25.72679940507135</v>
+        <v>38.61995637973401</v>
       </c>
       <c r="F4">
-        <v>63.31983294702037</v>
+        <v>61.32759208781113</v>
       </c>
       <c r="G4">
-        <v>1.852923883080241</v>
+        <v>1.94535496247427</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.78671095090376</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>66.12282672959957</v>
+        <v>15.54572781745063</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>12.36717928757121</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.07652501899113</v>
+        <v>20.37192804032417</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.49944613446189</v>
+        <v>8.737976750331825</v>
       </c>
       <c r="E5">
-        <v>25.10126040126859</v>
+        <v>37.71773564249874</v>
       </c>
       <c r="F5">
-        <v>61.26169237451573</v>
+        <v>59.83490776033997</v>
       </c>
       <c r="G5">
-        <v>1.867291800679101</v>
+        <v>1.953661223466219</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.50436712801626</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>64.42149228636751</v>
+        <v>15.17661834006904</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>12.47659741160335</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.98321898499842</v>
+        <v>20.30454558667756</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.43087170981058</v>
+        <v>8.707206804455527</v>
       </c>
       <c r="E6">
-        <v>24.99731968715789</v>
+        <v>37.56727263192764</v>
       </c>
       <c r="F6">
-        <v>60.92397051423534</v>
+        <v>59.58648261827017</v>
       </c>
       <c r="G6">
-        <v>1.869644296477264</v>
+        <v>1.955037130925181</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.45748161403484</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>64.13894400174364</v>
+        <v>15.11493194351047</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>12.49472265485095</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.62943698835546</v>
+        <v>20.77071680382103</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.91030255310778</v>
+        <v>8.92140555464546</v>
       </c>
       <c r="E7">
-        <v>25.71836423526823</v>
+        <v>38.60783032542943</v>
       </c>
       <c r="F7">
-        <v>63.29178488367497</v>
+        <v>61.30749638481736</v>
       </c>
       <c r="G7">
-        <v>1.853120062574834</v>
+        <v>1.945467236472041</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.78290204782731</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>66.0998743863374</v>
+        <v>15.54077582405618</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>12.36865816394106</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.48182671050707</v>
+        <v>22.97403815535849</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>15.1711383049199</v>
+        <v>9.960949939765364</v>
       </c>
       <c r="E8">
-        <v>28.9411563171607</v>
+        <v>43.12919759137366</v>
       </c>
       <c r="F8">
-        <v>74.6246468157813</v>
+        <v>68.85479328853064</v>
       </c>
       <c r="G8">
-        <v>1.772880985067864</v>
+        <v>1.902399827432724</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.23675484147963</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>74.89182693212794</v>
+        <v>17.36968797061378</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>11.80232932696259</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.60905096622164</v>
+        <v>27.3437730109702</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>22.86000140685587</v>
+        <v>12.28690614955261</v>
       </c>
       <c r="E9">
-        <v>37.74041593555536</v>
+        <v>52.09602861428706</v>
       </c>
       <c r="F9">
-        <v>113.743954375206</v>
+        <v>84.0247812738821</v>
       </c>
       <c r="G9">
-        <v>1.47740542964017</v>
+        <v>1.8098695064365</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>98.93915850861937</v>
+        <v>20.87931126507869</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>10.6033087000576</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.60905096622164</v>
+        <v>30.63509050947935</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>22.86000140685587</v>
+        <v>14.21107760077675</v>
       </c>
       <c r="E10">
-        <v>37.74041593555536</v>
+        <v>59.41753195085905</v>
       </c>
       <c r="F10">
-        <v>113.743954375206</v>
+        <v>96.44067696967682</v>
       </c>
       <c r="G10">
-        <v>1.47740542964017</v>
+        <v>1.727518874492759</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>98.93915850861937</v>
+        <v>23.60083358342369</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>9.57322759926773</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.60905096622164</v>
+        <v>32.24504387388642</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>22.86000140685587</v>
+        <v>15.23129860061328</v>
       </c>
       <c r="E11">
-        <v>37.74041593555536</v>
+        <v>63.28496331538395</v>
       </c>
       <c r="F11">
-        <v>113.743954375206</v>
+        <v>102.9488196981747</v>
       </c>
       <c r="G11">
-        <v>1.47740542964017</v>
+        <v>1.681713525552292</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>98.93915850861937</v>
+        <v>24.97352306306232</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>9.020870787268487</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.60905096622164</v>
+        <v>32.89193725686844</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>22.86000140685587</v>
+        <v>15.66060153024125</v>
       </c>
       <c r="E12">
-        <v>37.74041593555536</v>
+        <v>64.9120821624923</v>
       </c>
       <c r="F12">
-        <v>113.743954375206</v>
+        <v>105.6679415512685</v>
       </c>
       <c r="G12">
-        <v>1.47740542964017</v>
+        <v>1.661997908150665</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>98.93915850861937</v>
+        <v>25.53572813009456</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>8.788350417714209</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.60905096622164</v>
+        <v>32.75030357815944</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>22.86000140685587</v>
+        <v>15.56553342892129</v>
       </c>
       <c r="E13">
-        <v>37.74041593555536</v>
+        <v>64.55171991703988</v>
       </c>
       <c r="F13">
-        <v>113.743954375206</v>
+        <v>105.066885847448</v>
       </c>
       <c r="G13">
-        <v>1.47740542964017</v>
+        <v>1.666386271929089</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>98.93915850861937</v>
+        <v>25.41203858774468</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>8.839819512984349</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.60905096622164</v>
+        <v>32.29729788398189</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>22.86000140685587</v>
+        <v>15.26552284393719</v>
       </c>
       <c r="E14">
-        <v>37.74041593555536</v>
+        <v>63.41466579498289</v>
       </c>
       <c r="F14">
-        <v>113.743954375206</v>
+        <v>103.1660428377191</v>
       </c>
       <c r="G14">
-        <v>1.47740542964017</v>
+        <v>1.680151328631864</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>98.93915850861937</v>
+        <v>25.01868450174068</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>9.002327385764056</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.60905096622164</v>
+        <v>32.02573296713134</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>22.86000140685587</v>
+        <v>15.08848269505998</v>
       </c>
       <c r="E15">
-        <v>37.74041593555536</v>
+        <v>62.74372658974915</v>
       </c>
       <c r="F15">
-        <v>113.743954375206</v>
+        <v>102.0415437981936</v>
       </c>
       <c r="G15">
-        <v>1.47740542964017</v>
+        <v>1.688214596136232</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>98.93915850861937</v>
+        <v>24.78443479728293</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>9.098254925010894</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.60905096622164</v>
+        <v>30.53345580149436</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>22.86000140685587</v>
+        <v>14.14869036128429</v>
       </c>
       <c r="E16">
-        <v>37.74041593555536</v>
+        <v>59.18087429843813</v>
       </c>
       <c r="F16">
-        <v>113.743954375206</v>
+        <v>96.04079301594123</v>
       </c>
       <c r="G16">
-        <v>1.47740542964017</v>
+        <v>1.730271819518808</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>98.93915850861937</v>
+        <v>23.51526739384003</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>9.606933845130254</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.60905096622164</v>
+        <v>29.65599249644358</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>22.86000140685587</v>
+        <v>13.61877842486085</v>
       </c>
       <c r="E17">
-        <v>37.74041593555536</v>
+        <v>57.16931101855142</v>
       </c>
       <c r="F17">
-        <v>113.743954375206</v>
+        <v>92.63628607903254</v>
       </c>
       <c r="G17">
-        <v>1.47740542964017</v>
+        <v>1.753431092222013</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>98.93915850861937</v>
+        <v>22.78112431181187</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>9.892618051103813</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.60905096622164</v>
+        <v>29.16013760363733</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>22.86000140685587</v>
+        <v>13.32576027944295</v>
       </c>
       <c r="E18">
-        <v>37.74041593555536</v>
+        <v>56.05563751549133</v>
       </c>
       <c r="F18">
-        <v>113.743954375206</v>
+        <v>90.74801860421586</v>
       </c>
       <c r="G18">
-        <v>1.47740542964017</v>
+        <v>1.766064990203767</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>98.93915850861937</v>
+        <v>22.36959937026986</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>10.05000298146777</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.60905096622164</v>
+        <v>28.99342513147434</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>22.86000140685587</v>
+        <v>13.22821600681445</v>
       </c>
       <c r="E19">
-        <v>37.74041593555536</v>
+        <v>55.68463900059702</v>
       </c>
       <c r="F19">
-        <v>113.743954375206</v>
+        <v>90.1185777684303</v>
       </c>
       <c r="G19">
-        <v>1.47740542964017</v>
+        <v>1.770243550814284</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>98.93915850861937</v>
+        <v>22.23173452146845</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>10.10228471981172</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.60905096622164</v>
+        <v>29.74839710647578</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>22.86000140685587</v>
+        <v>13.67387845006522</v>
       </c>
       <c r="E20">
-        <v>37.74041593555536</v>
+        <v>57.37860884213314</v>
       </c>
       <c r="F20">
-        <v>113.743954375206</v>
+        <v>92.99092166385509</v>
       </c>
       <c r="G20">
-        <v>1.47740542964017</v>
+        <v>1.751041678984409</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>98.93915850861937</v>
+        <v>22.85806807683853</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>9.862971483510366</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.60905096622164</v>
+        <v>32.42904003997237</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>22.86000140685587</v>
+        <v>15.35215216578574</v>
       </c>
       <c r="E21">
-        <v>37.74041593555536</v>
+        <v>63.74297761650435</v>
       </c>
       <c r="F21">
-        <v>113.743954375206</v>
+        <v>103.7155401157465</v>
       </c>
       <c r="G21">
-        <v>1.47740542964017</v>
+        <v>1.676189654041929</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>98.93915850861937</v>
+        <v>25.13273517824188</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>8.955393016462386</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.60905096622164</v>
+        <v>34.44271714524936</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>22.86000140685587</v>
+        <v>16.74739675401101</v>
       </c>
       <c r="E22">
-        <v>37.74041593555536</v>
+        <v>69.0356455511251</v>
       </c>
       <c r="F22">
-        <v>113.743954375206</v>
+        <v>112.4902536488987</v>
       </c>
       <c r="G22">
-        <v>1.47740542964017</v>
+        <v>1.610936089187706</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>98.93915850861937</v>
+        <v>26.91579838704624</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>8.202159994928945</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.60905096622164</v>
+        <v>33.3255605820805</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>22.86000140685587</v>
+        <v>15.95567916726816</v>
       </c>
       <c r="E23">
-        <v>37.74041593555536</v>
+        <v>66.03084458460052</v>
       </c>
       <c r="F23">
-        <v>113.743954375206</v>
+        <v>107.5293937967026</v>
       </c>
       <c r="G23">
-        <v>1.47740542964017</v>
+        <v>1.648296309730013</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>98.93915850861937</v>
+        <v>25.9166612987428</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>8.628731845392714</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.60905096622164</v>
+        <v>29.70659529456081</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>22.86000140685587</v>
+        <v>13.64893266842548</v>
       </c>
       <c r="E24">
-        <v>37.74041593555536</v>
+        <v>57.28385653376862</v>
       </c>
       <c r="F24">
-        <v>113.743954375206</v>
+        <v>92.83038291787688</v>
       </c>
       <c r="G24">
-        <v>1.47740542964017</v>
+        <v>1.752123990234016</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>98.93915850861937</v>
+        <v>22.82325019502416</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>9.876395450682075</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.60905096622164</v>
+        <v>26.16542594017356</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>22.86000140685587</v>
+        <v>11.63814904313771</v>
       </c>
       <c r="E25">
-        <v>37.74041593555536</v>
+        <v>49.61153280238351</v>
       </c>
       <c r="F25">
-        <v>113.743954375206</v>
+        <v>79.80688268629274</v>
       </c>
       <c r="G25">
-        <v>1.47740542964017</v>
+        <v>1.836445999582454</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.04221850315353</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>98.93915850861937</v>
+        <v>19.92430807794211</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>10.9440936312044</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.58472169830562</v>
+        <v>10.29043874989136</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.27392399361854</v>
+        <v>7.117948433259155</v>
       </c>
       <c r="E2">
-        <v>44.34649187269021</v>
+        <v>33.24564014523219</v>
       </c>
       <c r="F2">
-        <v>70.90226321489938</v>
+        <v>56.03349572408069</v>
       </c>
       <c r="G2">
-        <v>1.89039167788676</v>
+        <v>90.90791262272089</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>22.59859069808387</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.37165960169562</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.85580504035278</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.64502906710953</v>
+        <v>17.66009174000652</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.79888588629066</v>
+        <v>9.642069640698997</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.385254893433954</v>
+        <v>6.564725168179632</v>
       </c>
       <c r="E3">
-        <v>40.81141603283244</v>
+        <v>30.44602407240638</v>
       </c>
       <c r="F3">
-        <v>64.97312745192745</v>
+        <v>51.50995540373383</v>
       </c>
       <c r="G3">
-        <v>1.924779368595413</v>
+        <v>83.54468293113754</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>20.76918405709202</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.95198825171213</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.43659406507264</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.09630510461154</v>
+        <v>17.03548212919463</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.7761510037166</v>
+        <v>9.219808664142482</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.923920721275318</v>
+        <v>6.220779729630146</v>
       </c>
       <c r="E4">
-        <v>38.61995637973401</v>
+        <v>28.70360774165395</v>
       </c>
       <c r="F4">
-        <v>61.32759208781113</v>
+        <v>48.66662396442955</v>
       </c>
       <c r="G4">
-        <v>1.94535496247427</v>
+        <v>78.91792757778715</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>19.62021966259337</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.6940167676315</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.54572781745063</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.36717928757121</v>
+        <v>16.64211895543887</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.37192804032417</v>
+        <v>9.041664563526798</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.737976750331825</v>
+        <v>6.079077255976997</v>
       </c>
       <c r="E5">
-        <v>37.71773564249874</v>
+        <v>27.98506360375699</v>
       </c>
       <c r="F5">
-        <v>59.83490776033997</v>
+        <v>47.48847189592077</v>
       </c>
       <c r="G5">
-        <v>1.953661223466219</v>
+        <v>77.00104442509097</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>19.14434842402656</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.5890011824499</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.17661834006904</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.47659741160335</v>
+        <v>16.4795824747428</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.30454558667756</v>
+        <v>9.011717599186582</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.707206804455527</v>
+        <v>6.055442832268741</v>
       </c>
       <c r="E6">
-        <v>37.56727263192764</v>
+        <v>27.86517127601024</v>
       </c>
       <c r="F6">
-        <v>59.58648261827017</v>
+        <v>47.29159112462232</v>
       </c>
       <c r="G6">
-        <v>1.955037130925181</v>
+        <v>76.6807253405556</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>19.0648376574445</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.57157555785396</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.11493194351047</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.49472265485095</v>
+        <v>16.45246571237607</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.77071680382103</v>
+        <v>9.217430712680025</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.92140555464546</v>
+        <v>6.218875465850374</v>
       </c>
       <c r="E7">
-        <v>38.60783032542943</v>
+        <v>28.69395462944349</v>
       </c>
       <c r="F7">
-        <v>61.30749638481736</v>
+        <v>48.65081722954503</v>
       </c>
       <c r="G7">
-        <v>1.945467236472041</v>
+        <v>78.8922088163085</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>19.61383430053029</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.69259979827776</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.54077582405618</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.36865816394106</v>
+        <v>16.63993565893843</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.97403815535849</v>
+        <v>10.07189696902261</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.960949939765364</v>
+        <v>6.927761462534695</v>
       </c>
       <c r="E8">
-        <v>43.12919759137366</v>
+        <v>32.28343237765775</v>
       </c>
       <c r="F8">
-        <v>68.85479328853064</v>
+        <v>54.48547941948176</v>
       </c>
       <c r="G8">
-        <v>1.902399827432724</v>
+        <v>88.38772385987006</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>21.97233526688954</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.22712496895304</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.36968797061378</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.80232932696259</v>
+        <v>17.44690696866403</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.3437730109702</v>
+        <v>11.55585895585725</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>12.28690614955261</v>
+        <v>8.313561151385988</v>
       </c>
       <c r="E9">
-        <v>52.09602861428706</v>
+        <v>39.29836858976724</v>
       </c>
       <c r="F9">
-        <v>84.0247812738821</v>
+        <v>65.58324063446845</v>
       </c>
       <c r="G9">
-        <v>1.8098695064365</v>
+        <v>106.467466346509</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>26.46707208226041</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.26538367260165</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.87931126507869</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.6033087000576</v>
+        <v>18.94189970660572</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.63509050947935</v>
+        <v>12.5297092912078</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>14.21107760077675</v>
+        <v>9.393072066362066</v>
       </c>
       <c r="E10">
-        <v>59.41753195085905</v>
+        <v>44.79031850332398</v>
       </c>
       <c r="F10">
-        <v>96.44067696967682</v>
+        <v>73.90399863663308</v>
       </c>
       <c r="G10">
-        <v>1.727518874492759</v>
+        <v>120.0492414640807</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>29.84590663756818</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>18.01259935784354</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.60083358342369</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.57322759926773</v>
+        <v>19.97606265756468</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.24504387388642</v>
+        <v>12.94761701402772</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>15.23129860061328</v>
+        <v>9.924779221175777</v>
       </c>
       <c r="E11">
-        <v>63.28496331538395</v>
+        <v>47.51498107907745</v>
       </c>
       <c r="F11">
-        <v>102.9488196981747</v>
+        <v>77.88147330100394</v>
       </c>
       <c r="G11">
-        <v>1.681713525552292</v>
+        <v>126.5528085089368</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>31.46433111800178</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>18.34734226049181</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>24.97352306306232</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.020870787268487</v>
+        <v>20.4307142622071</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.89193725686844</v>
+        <v>13.10227306321354</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>15.66060153024125</v>
+        <v>10.13636775195783</v>
       </c>
       <c r="E12">
-        <v>64.9120821624923</v>
+        <v>48.60442632030578</v>
       </c>
       <c r="F12">
-        <v>105.6679415512685</v>
+        <v>79.43986259407197</v>
       </c>
       <c r="G12">
-        <v>1.661997908150665</v>
+        <v>129.1033499151022</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>32.09910688371926</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18.47322318570792</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.53572813009456</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.788350417714209</v>
+        <v>20.60047737535905</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.75030357815944</v>
+        <v>13.06912484624304</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>15.56553342892129</v>
+        <v>10.09023638305985</v>
       </c>
       <c r="E13">
-        <v>64.55171991703988</v>
+        <v>48.36661410310736</v>
       </c>
       <c r="F13">
-        <v>105.066885847448</v>
+        <v>79.10132678293859</v>
       </c>
       <c r="G13">
-        <v>1.666386271929089</v>
+        <v>128.549159412227</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>31.96117757104124</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>18.4461536019522</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.41203858774468</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.839819512984349</v>
+        <v>20.56402467484062</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.29729788398189</v>
+        <v>12.9604126591863</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>15.26552284393719</v>
+        <v>9.941944613208314</v>
       </c>
       <c r="E14">
-        <v>63.41466579498289</v>
+        <v>47.60324170131936</v>
       </c>
       <c r="F14">
-        <v>103.1660428377191</v>
+        <v>78.00843325340348</v>
       </c>
       <c r="G14">
-        <v>1.680151328631864</v>
+        <v>126.7605436609518</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>31.5160306434167</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18.35771691037969</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.01868450174068</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.002327385764056</v>
+        <v>20.44472964347822</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.02573296713134</v>
+        <v>12.89335534820419</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>15.08848269505998</v>
+        <v>9.852629584382086</v>
       </c>
       <c r="E15">
-        <v>62.74372658974915</v>
+        <v>47.14422680566013</v>
       </c>
       <c r="F15">
-        <v>102.0415437981936</v>
+        <v>77.34682033243374</v>
       </c>
       <c r="G15">
-        <v>1.688214596136232</v>
+        <v>125.6780976155805</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>31.24664253660748</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>18.30342859422273</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.78443479728293</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.098254925010894</v>
+        <v>20.37134134399619</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.53345580149436</v>
+        <v>12.5018940031287</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>14.14869036128429</v>
+        <v>9.359453866363712</v>
       </c>
       <c r="E16">
-        <v>59.18087429843813</v>
+        <v>44.61858315139339</v>
       </c>
       <c r="F16">
-        <v>96.04079301594123</v>
+        <v>73.64968622820899</v>
       </c>
       <c r="G16">
-        <v>1.730271819518808</v>
+        <v>119.6336921692032</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>29.74250584016862</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>17.99060724195163</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.51526739384003</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.606933845130254</v>
+        <v>19.94602056483713</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.65599249644358</v>
+        <v>12.25532470262208</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>13.61877842486085</v>
+        <v>9.06963904758897</v>
       </c>
       <c r="E17">
-        <v>57.16931101855142</v>
+        <v>43.14030145762351</v>
       </c>
       <c r="F17">
-        <v>92.63628607903254</v>
+        <v>71.44398488205547</v>
       </c>
       <c r="G17">
-        <v>1.753431092222013</v>
+        <v>116.0308201286632</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>28.846058319535</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>17.7972772784484</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.78112431181187</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.892618051103813</v>
+        <v>19.68095489707129</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.16013760363733</v>
+        <v>12.11114096131531</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>13.32576027944295</v>
+        <v>8.906406401175271</v>
       </c>
       <c r="E18">
-        <v>56.05563751549133</v>
+        <v>42.30925376478735</v>
       </c>
       <c r="F18">
-        <v>90.74801860421586</v>
+        <v>70.19141053180374</v>
       </c>
       <c r="G18">
-        <v>1.766064990203767</v>
+        <v>113.9857790194216</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>28.33726613138038</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>17.68559980266638</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.36959937026986</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.05000298146777</v>
+        <v>19.52701623627307</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.99342513147434</v>
+        <v>12.06191650564219</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>13.22821600681445</v>
+        <v>8.851640870270064</v>
       </c>
       <c r="E19">
-        <v>55.68463900059702</v>
+        <v>42.03065679258152</v>
       </c>
       <c r="F19">
-        <v>90.1185777684303</v>
+        <v>69.76955167229342</v>
       </c>
       <c r="G19">
-        <v>1.770243550814284</v>
+        <v>113.2971701553253</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>28.16595259224449</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>17.64770975113286</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.23173452146845</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.10228471981172</v>
+        <v>19.47464540078959</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.74839710647578</v>
+        <v>12.28181696041141</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>13.67387845006522</v>
+        <v>9.1001089814428</v>
       </c>
       <c r="E20">
-        <v>57.37860884213314</v>
+        <v>43.29554722129468</v>
       </c>
       <c r="F20">
-        <v>92.99092166385509</v>
+        <v>71.67699005828179</v>
       </c>
       <c r="G20">
-        <v>1.751041678984409</v>
+        <v>116.4113151973264</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>28.94072650946135</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>17.81790819761057</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.85806807683853</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.862971483510366</v>
+        <v>19.70932576861093</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.42904003997237</v>
+        <v>12.99244155991442</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>15.35215216578574</v>
+        <v>9.985172229555634</v>
       </c>
       <c r="E21">
-        <v>63.74297761650435</v>
+        <v>47.82560118421785</v>
       </c>
       <c r="F21">
-        <v>103.7155401157465</v>
+        <v>78.32774261052123</v>
       </c>
       <c r="G21">
-        <v>1.676189654041929</v>
+        <v>127.2830476160727</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>31.64606848862707</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>18.38371778730691</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.13273517824188</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.955393016462386</v>
+        <v>20.47983568721167</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.44271714524936</v>
+        <v>13.43591967862776</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>16.74739675401101</v>
+        <v>10.62848554196542</v>
       </c>
       <c r="E22">
-        <v>69.0356455511251</v>
+        <v>51.1527341234156</v>
       </c>
       <c r="F22">
-        <v>112.4902536488987</v>
+        <v>83.00687130045034</v>
       </c>
       <c r="G22">
-        <v>1.610936089187706</v>
+        <v>134.9471908816511</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>33.55364072727303</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.74832924437954</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.91579838704624</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.202159994928945</v>
+        <v>20.96934909802546</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.3255605820805</v>
+        <v>13.20113979645824</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>15.95567916726816</v>
+        <v>10.27669120441184</v>
       </c>
       <c r="E23">
-        <v>66.03084458460052</v>
+        <v>49.32886037695864</v>
       </c>
       <c r="F23">
-        <v>107.5293937967026</v>
+        <v>80.46532830195133</v>
       </c>
       <c r="G23">
-        <v>1.648296309730013</v>
+        <v>130.7825003784469</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>32.51703088151399</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>18.55424479086267</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.9166612987428</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.628731845392714</v>
+        <v>20.70941231798718</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.70659529456081</v>
+        <v>12.26984737358424</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>13.64893266842548</v>
+        <v>9.086323257699505</v>
       </c>
       <c r="E24">
-        <v>57.28385653376862</v>
+        <v>43.22530352389218</v>
       </c>
       <c r="F24">
-        <v>92.83038291787688</v>
+        <v>71.57160166831471</v>
       </c>
       <c r="G24">
-        <v>1.752123990234016</v>
+        <v>116.2392140847116</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>28.89790715461465</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>17.80858259792756</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.82325019502416</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.876395450682075</v>
+        <v>19.69650411176672</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.16542594017356</v>
+        <v>11.17489577285955</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.63814904313771</v>
+        <v>7.934064160509309</v>
       </c>
       <c r="E25">
-        <v>49.61153280238351</v>
+        <v>37.37543895393694</v>
       </c>
       <c r="F25">
-        <v>79.80688268629274</v>
+        <v>62.58753621973645</v>
       </c>
       <c r="G25">
-        <v>1.836445999582454</v>
+        <v>101.5838375087875</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>25.25256024800277</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.98659684967531</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.92430807794211</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.9440936312044</v>
+        <v>18.54803743298113</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.29043874989136</v>
+        <v>7.973936579530329</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.117948433259155</v>
+        <v>4.4530821209041</v>
       </c>
       <c r="E2">
-        <v>33.24564014523219</v>
+        <v>16.80072893514019</v>
       </c>
       <c r="F2">
-        <v>56.03349572408069</v>
+        <v>31.66688530865378</v>
       </c>
       <c r="G2">
-        <v>90.90791262272089</v>
+        <v>47.97825748599407</v>
       </c>
       <c r="H2">
-        <v>22.59859069808387</v>
+        <v>14.99599398427061</v>
       </c>
       <c r="I2">
-        <v>16.37165960169562</v>
+        <v>17.51723746316919</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.66009174000652</v>
+        <v>17.13588176064243</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.642069640698997</v>
+        <v>7.726105456002573</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.564725168179632</v>
+        <v>4.256110385767948</v>
       </c>
       <c r="E3">
-        <v>30.44602407240638</v>
+        <v>15.81414347791596</v>
       </c>
       <c r="F3">
-        <v>51.50995540373383</v>
+        <v>30.1364997654836</v>
       </c>
       <c r="G3">
-        <v>83.54468293113754</v>
+        <v>45.07585997036803</v>
       </c>
       <c r="H3">
-        <v>20.76918405709202</v>
+        <v>14.56739984798534</v>
       </c>
       <c r="I3">
-        <v>15.95198825171213</v>
+        <v>17.43545559361282</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.03548212919463</v>
+        <v>16.94880368210766</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.219808664142482</v>
+        <v>7.569968192699863</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.220779729630146</v>
+        <v>4.129921971931488</v>
       </c>
       <c r="E4">
-        <v>28.70360774165395</v>
+        <v>15.18345797957187</v>
       </c>
       <c r="F4">
-        <v>48.66662396442955</v>
+        <v>29.16934848132706</v>
       </c>
       <c r="G4">
-        <v>78.91792757778715</v>
+        <v>43.21230408299177</v>
       </c>
       <c r="H4">
-        <v>19.62021966259337</v>
+        <v>14.30402308097859</v>
       </c>
       <c r="I4">
-        <v>15.6940167676315</v>
+        <v>17.38881070702378</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.64211895543887</v>
+        <v>16.8348163882461</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.041664563526798</v>
+        <v>7.505429865113701</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.079077255976997</v>
+        <v>4.077210539987413</v>
       </c>
       <c r="E5">
-        <v>27.98506360375699</v>
+        <v>14.92044224378858</v>
       </c>
       <c r="F5">
-        <v>47.48847189592077</v>
+        <v>28.76891537651177</v>
       </c>
       <c r="G5">
-        <v>77.00104442509097</v>
+        <v>42.43304870019238</v>
       </c>
       <c r="H5">
-        <v>19.14434842402656</v>
+        <v>14.19681494693921</v>
       </c>
       <c r="I5">
-        <v>15.5890011824499</v>
+        <v>17.37072111759998</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.4795824747428</v>
+        <v>16.78863424108457</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.011717599186582</v>
+        <v>7.494660968687235</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.055442832268741</v>
+        <v>4.06838101841469</v>
       </c>
       <c r="E6">
-        <v>27.86517127601024</v>
+        <v>14.87641457860602</v>
       </c>
       <c r="F6">
-        <v>47.29159112462232</v>
+        <v>28.70206186205763</v>
       </c>
       <c r="G6">
-        <v>76.6807253405556</v>
+        <v>42.30247733761876</v>
       </c>
       <c r="H6">
-        <v>19.0648376574445</v>
+        <v>14.17902561583299</v>
       </c>
       <c r="I6">
-        <v>15.57157555785396</v>
+        <v>17.36777342702464</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.45246571237607</v>
+        <v>16.78098333545054</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.217430712680025</v>
+        <v>7.569101375573601</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.218875465850374</v>
+        <v>4.129216260298202</v>
       </c>
       <c r="E7">
-        <v>28.69395462944349</v>
+        <v>15.17993479371136</v>
       </c>
       <c r="F7">
-        <v>48.65081722954503</v>
+        <v>29.16397279584906</v>
       </c>
       <c r="G7">
-        <v>78.8922088163085</v>
+        <v>43.20187414878671</v>
       </c>
       <c r="H7">
-        <v>19.61383430053029</v>
+        <v>14.30257651222966</v>
       </c>
       <c r="I7">
-        <v>15.69259979827776</v>
+        <v>17.38856299824779</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.63993565893843</v>
+        <v>16.83419240957982</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.07189696902261</v>
+        <v>7.889357710724763</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.927761462534695</v>
+        <v>4.386272154184288</v>
       </c>
       <c r="E8">
-        <v>32.28343237765775</v>
+        <v>16.46586561567118</v>
       </c>
       <c r="F8">
-        <v>54.48547941948176</v>
+        <v>31.14524790463039</v>
       </c>
       <c r="G8">
-        <v>88.38772385987006</v>
+        <v>46.99476461840648</v>
       </c>
       <c r="H8">
-        <v>21.97233526688954</v>
+        <v>14.84836263646827</v>
       </c>
       <c r="I8">
-        <v>16.22712496895304</v>
+        <v>17.48831115075836</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.44690696866403</v>
+        <v>17.07122325684947</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.55585895585725</v>
+        <v>8.48245444634245</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.313561151385988</v>
+        <v>4.847626781533176</v>
       </c>
       <c r="E9">
-        <v>39.29836858976724</v>
+        <v>18.96963095844109</v>
       </c>
       <c r="F9">
-        <v>65.58324063446845</v>
+        <v>34.79019700568814</v>
       </c>
       <c r="G9">
-        <v>106.467466346509</v>
+        <v>53.76441982954865</v>
       </c>
       <c r="H9">
-        <v>26.46707208226041</v>
+        <v>15.90964749827232</v>
       </c>
       <c r="I9">
-        <v>17.26538367260165</v>
+        <v>17.71126666152004</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.94189970660572</v>
+        <v>17.54092831277462</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.5297092912078</v>
+        <v>8.892805469389883</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.393072066362066</v>
+        <v>5.159375015272185</v>
       </c>
       <c r="E10">
-        <v>44.79031850332398</v>
+        <v>20.7005264712871</v>
       </c>
       <c r="F10">
-        <v>73.90399863663308</v>
+        <v>37.29712272872882</v>
       </c>
       <c r="G10">
-        <v>120.0492414640807</v>
+        <v>58.30908890538318</v>
       </c>
       <c r="H10">
-        <v>29.84590663756818</v>
+        <v>16.67484774318615</v>
       </c>
       <c r="I10">
-        <v>18.01259935784354</v>
+        <v>17.89037526883937</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.97606265756468</v>
+        <v>17.88621396499388</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.94761701402772</v>
+        <v>9.073239364152251</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.924779221175777</v>
+        <v>5.295119806458914</v>
       </c>
       <c r="E11">
-        <v>47.51498107907745</v>
+        <v>21.44630217105968</v>
       </c>
       <c r="F11">
-        <v>77.88147330100394</v>
+        <v>38.39657939506925</v>
       </c>
       <c r="G11">
-        <v>126.5528085089368</v>
+        <v>60.28053908437305</v>
       </c>
       <c r="H11">
-        <v>31.46433111800178</v>
+        <v>17.01811053947613</v>
       </c>
       <c r="I11">
-        <v>18.34734226049181</v>
+        <v>17.97487022382017</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.4307142622071</v>
+        <v>18.04275315944065</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.10227306321354</v>
+        <v>9.140615808877813</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.13636775195783</v>
+        <v>5.345639535607845</v>
       </c>
       <c r="E12">
-        <v>48.60442632030578</v>
+        <v>21.72277565408117</v>
       </c>
       <c r="F12">
-        <v>79.43986259407197</v>
+        <v>38.8067745188044</v>
       </c>
       <c r="G12">
-        <v>129.1033499151022</v>
+        <v>61.01311911472015</v>
       </c>
       <c r="H12">
-        <v>32.09910688371926</v>
+        <v>17.14727530363974</v>
       </c>
       <c r="I12">
-        <v>18.47322318570792</v>
+        <v>18.00727319226982</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.60047737535905</v>
+        <v>18.10190618682361</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.06912484624304</v>
+        <v>9.126148118074395</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.09023638305985</v>
+        <v>5.334798663661699</v>
       </c>
       <c r="E13">
-        <v>48.36661410310736</v>
+        <v>21.66349534754383</v>
       </c>
       <c r="F13">
-        <v>79.10132678293859</v>
+        <v>38.71870855538847</v>
       </c>
       <c r="G13">
-        <v>128.549159412227</v>
+        <v>60.85596817346871</v>
       </c>
       <c r="H13">
-        <v>31.96117757104124</v>
+        <v>17.11949578527255</v>
       </c>
       <c r="I13">
-        <v>18.4461536019522</v>
+        <v>18.00027699228534</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.56402467484062</v>
+        <v>18.08917283935257</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.9604126591863</v>
+        <v>9.078801786399699</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.941944613208314</v>
+        <v>5.299293861980987</v>
       </c>
       <c r="E14">
-        <v>47.60324170131936</v>
+        <v>21.46916648747204</v>
       </c>
       <c r="F14">
-        <v>78.00843325340348</v>
+        <v>38.43045085574376</v>
       </c>
       <c r="G14">
-        <v>126.7605436609518</v>
+        <v>60.34108956117144</v>
       </c>
       <c r="H14">
-        <v>31.5160306434167</v>
+        <v>17.02875414856346</v>
       </c>
       <c r="I14">
-        <v>18.35771691037969</v>
+        <v>17.97752804593549</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.44472964347822</v>
+        <v>18.04762249193302</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.89335534820419</v>
+        <v>9.049675604494446</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.852629584382086</v>
+        <v>5.277430761849357</v>
       </c>
       <c r="E15">
-        <v>47.14422680566013</v>
+        <v>21.34936291773622</v>
       </c>
       <c r="F15">
-        <v>77.34682033243374</v>
+        <v>38.25307759903486</v>
       </c>
       <c r="G15">
-        <v>125.6780976155805</v>
+        <v>60.02388868579952</v>
       </c>
       <c r="H15">
-        <v>31.24664253660748</v>
+        <v>16.97306174473784</v>
       </c>
       <c r="I15">
-        <v>18.30342859422273</v>
+        <v>17.96364578513084</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.37134134399619</v>
+        <v>18.02215401479311</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.5018940031287</v>
+        <v>8.880883512103347</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.359453866363712</v>
+        <v>5.150380618130106</v>
       </c>
       <c r="E16">
-        <v>44.61858315139339</v>
+        <v>20.65095500525945</v>
       </c>
       <c r="F16">
-        <v>73.64968622820899</v>
+        <v>37.2244235607972</v>
       </c>
       <c r="G16">
-        <v>119.6336921692032</v>
+        <v>58.17830377378787</v>
       </c>
       <c r="H16">
-        <v>29.74250584016862</v>
+        <v>16.65230639989389</v>
       </c>
       <c r="I16">
-        <v>17.99060724195163</v>
+        <v>17.88491171931956</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.94602056483713</v>
+        <v>17.87596887941638</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.25532470262208</v>
+        <v>8.77569792055426</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.06963904758897</v>
+        <v>5.070875926456215</v>
       </c>
       <c r="E17">
-        <v>43.14030145762351</v>
+        <v>20.21187991088275</v>
       </c>
       <c r="F17">
-        <v>71.44398488205547</v>
+        <v>36.58269053228319</v>
       </c>
       <c r="G17">
-        <v>116.0308201286632</v>
+        <v>57.02138715638986</v>
       </c>
       <c r="H17">
-        <v>28.846058319535</v>
+        <v>16.45420217812308</v>
       </c>
       <c r="I17">
-        <v>17.7972772784484</v>
+        <v>17.83736449730068</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.68095489707129</v>
+        <v>17.78611779882747</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.11114096131531</v>
+        <v>8.71461368730956</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.906406401175271</v>
+        <v>5.024575959885126</v>
       </c>
       <c r="E18">
-        <v>42.30925376478735</v>
+        <v>19.95541536592146</v>
       </c>
       <c r="F18">
-        <v>70.19141053180374</v>
+        <v>36.20973971098365</v>
       </c>
       <c r="G18">
-        <v>113.9857790194216</v>
+        <v>56.34693520985559</v>
       </c>
       <c r="H18">
-        <v>28.33726613138038</v>
+        <v>16.33981001259289</v>
       </c>
       <c r="I18">
-        <v>17.68559980266638</v>
+        <v>17.8103022940806</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.52701623627307</v>
+        <v>17.73439049486328</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.06191650564219</v>
+        <v>8.693832984641853</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.851640870270064</v>
+        <v>5.008801897977272</v>
       </c>
       <c r="E19">
-        <v>42.03065679258152</v>
+        <v>19.86790610021658</v>
       </c>
       <c r="F19">
-        <v>69.76955167229342</v>
+        <v>36.08281351125076</v>
       </c>
       <c r="G19">
-        <v>113.2971701553253</v>
+        <v>56.11703346922739</v>
       </c>
       <c r="H19">
-        <v>28.16595259224449</v>
+        <v>16.30100592805423</v>
       </c>
       <c r="I19">
-        <v>17.64770975113286</v>
+        <v>17.80118939117584</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.47464540078959</v>
+        <v>17.71686987832945</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.28181696041141</v>
+        <v>8.786955979029544</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.1001089814428</v>
+        <v>5.079398517153265</v>
       </c>
       <c r="E20">
-        <v>43.29554722129468</v>
+        <v>20.25902557245064</v>
       </c>
       <c r="F20">
-        <v>71.67699005828179</v>
+        <v>36.65140384155789</v>
       </c>
       <c r="G20">
-        <v>116.4113151973264</v>
+        <v>57.14547825128386</v>
       </c>
       <c r="H20">
-        <v>28.94072650946135</v>
+        <v>16.47533801822657</v>
       </c>
       <c r="I20">
-        <v>17.81790819761057</v>
+        <v>17.842396607743</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.70932576861093</v>
+        <v>17.79568785271756</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.99244155991442</v>
+        <v>9.092734726993198</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.985172229555634</v>
+        <v>5.309746544556469</v>
       </c>
       <c r="E21">
-        <v>47.82560118421785</v>
+        <v>21.52640628333927</v>
       </c>
       <c r="F21">
-        <v>78.32774261052123</v>
+        <v>38.51528771957199</v>
       </c>
       <c r="G21">
-        <v>127.2830476160727</v>
+        <v>60.49270200548502</v>
       </c>
       <c r="H21">
-        <v>31.64606848862707</v>
+        <v>17.0554304110521</v>
       </c>
       <c r="I21">
-        <v>18.38371778730691</v>
+        <v>17.9841991494933</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.47983568721167</v>
+        <v>18.05983060728496</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.43591967862776</v>
+        <v>9.287021218569393</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.62848554196542</v>
+        <v>5.455137147564349</v>
       </c>
       <c r="E22">
-        <v>51.1527341234156</v>
+        <v>22.32013858859541</v>
       </c>
       <c r="F22">
-        <v>83.00687130045034</v>
+        <v>39.69753703054367</v>
       </c>
       <c r="G22">
-        <v>134.9471908816511</v>
+        <v>62.59886043891643</v>
       </c>
       <c r="H22">
-        <v>33.55364072727303</v>
+        <v>17.42971607441627</v>
       </c>
       <c r="I22">
-        <v>18.74832924437954</v>
+        <v>18.07923203987227</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.96934909802546</v>
+        <v>18.23171317604657</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.20113979645824</v>
+        <v>9.183851410766975</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.27669120441184</v>
+        <v>5.378014062561288</v>
       </c>
       <c r="E23">
-        <v>49.32886037695864</v>
+        <v>21.89965602861509</v>
       </c>
       <c r="F23">
-        <v>80.46532830195133</v>
+        <v>39.06990661277872</v>
       </c>
       <c r="G23">
-        <v>130.7825003784469</v>
+        <v>61.4822596397713</v>
       </c>
       <c r="H23">
-        <v>32.51703088151399</v>
+        <v>17.23043429362993</v>
       </c>
       <c r="I23">
-        <v>18.55424479086267</v>
+        <v>18.02830472145925</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.70941231798718</v>
+        <v>18.14006050298211</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.26984737358424</v>
+        <v>8.781868111808391</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.086323257699505</v>
+        <v>5.075547295935355</v>
       </c>
       <c r="E24">
-        <v>43.22530352389218</v>
+        <v>20.23772358888641</v>
       </c>
       <c r="F24">
-        <v>71.57160166831471</v>
+        <v>36.62035102466096</v>
       </c>
       <c r="G24">
-        <v>116.2392140847116</v>
+        <v>57.08940569978319</v>
       </c>
       <c r="H24">
-        <v>28.89790715461465</v>
+        <v>16.46578405071612</v>
       </c>
       <c r="I24">
-        <v>17.80858259792756</v>
+        <v>17.84012073718834</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.69650411176672</v>
+        <v>17.79136144795664</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.17489577285955</v>
+        <v>8.326196084739871</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.934064160509309</v>
+        <v>4.727527600169029</v>
       </c>
       <c r="E25">
-        <v>37.37543895393694</v>
+        <v>18.29498466018679</v>
       </c>
       <c r="F25">
-        <v>62.58753621973645</v>
+        <v>33.83266512629792</v>
       </c>
       <c r="G25">
-        <v>101.5838375087875</v>
+        <v>52.00717024423898</v>
       </c>
       <c r="H25">
-        <v>25.25256024800277</v>
+        <v>15.62447975441807</v>
       </c>
       <c r="I25">
-        <v>16.98659684967531</v>
+        <v>17.64816122966614</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.54803743298113</v>
+        <v>17.41362653806358</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.973936579530329</v>
+        <v>10.29043874989134</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.4530821209041</v>
+        <v>7.117948433259054</v>
       </c>
       <c r="E2">
-        <v>16.80072893514019</v>
+        <v>33.24564014523217</v>
       </c>
       <c r="F2">
-        <v>31.66688530865378</v>
+        <v>56.03349572408071</v>
       </c>
       <c r="G2">
-        <v>47.97825748599407</v>
+        <v>90.90791262272087</v>
       </c>
       <c r="H2">
-        <v>14.99599398427061</v>
+        <v>22.59859069808383</v>
       </c>
       <c r="I2">
-        <v>17.51723746316919</v>
+        <v>16.37165960169562</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.13588176064243</v>
+        <v>17.66009174000652</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.726105456002573</v>
+        <v>9.642069640699011</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.256110385767948</v>
+        <v>6.564725168179692</v>
       </c>
       <c r="E3">
-        <v>15.81414347791596</v>
+        <v>30.44602407240646</v>
       </c>
       <c r="F3">
-        <v>30.1364997654836</v>
+        <v>51.50995540373385</v>
       </c>
       <c r="G3">
-        <v>45.07585997036803</v>
+        <v>83.54468293113764</v>
       </c>
       <c r="H3">
-        <v>14.56739984798534</v>
+        <v>20.76918405709201</v>
       </c>
       <c r="I3">
-        <v>17.43545559361282</v>
+        <v>15.95198825171206</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.94880368210766</v>
+        <v>17.03548212919459</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.569968192699863</v>
+        <v>9.219808664142498</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.129921971931488</v>
+        <v>6.22077972963008</v>
       </c>
       <c r="E4">
-        <v>15.18345797957187</v>
+        <v>28.70360774165401</v>
       </c>
       <c r="F4">
-        <v>29.16934848132706</v>
+        <v>48.66662396442968</v>
       </c>
       <c r="G4">
-        <v>43.21230408299177</v>
+        <v>78.9179275777873</v>
       </c>
       <c r="H4">
-        <v>14.30402308097859</v>
+        <v>19.62021966259342</v>
       </c>
       <c r="I4">
-        <v>17.38881070702378</v>
+        <v>15.69401676763148</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.8348163882461</v>
+        <v>16.64211895543886</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.505429865113701</v>
+        <v>9.041664563526798</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.077210539987413</v>
+        <v>6.079077255977003</v>
       </c>
       <c r="E5">
-        <v>14.92044224378858</v>
+        <v>27.98506360375694</v>
       </c>
       <c r="F5">
-        <v>28.76891537651177</v>
+        <v>47.48847189592068</v>
       </c>
       <c r="G5">
-        <v>42.43304870019238</v>
+        <v>77.00104442509081</v>
       </c>
       <c r="H5">
-        <v>14.19681494693921</v>
+        <v>19.1443484240265</v>
       </c>
       <c r="I5">
-        <v>17.37072111759998</v>
+        <v>15.58900118244992</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.78863424108457</v>
+        <v>16.47958247474283</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.494660968687235</v>
+        <v>9.011717599186598</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.06838101841469</v>
+        <v>6.055442832268699</v>
       </c>
       <c r="E6">
-        <v>14.87641457860602</v>
+        <v>27.86517127601033</v>
       </c>
       <c r="F6">
-        <v>28.70206186205763</v>
+        <v>47.29159112462241</v>
       </c>
       <c r="G6">
-        <v>42.30247733761876</v>
+        <v>76.6807253405557</v>
       </c>
       <c r="H6">
-        <v>14.17902561583299</v>
+        <v>19.06483765744455</v>
       </c>
       <c r="I6">
-        <v>17.36777342702464</v>
+        <v>15.57157555785395</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.78098333545054</v>
+        <v>16.45246571237606</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.569101375573601</v>
+        <v>9.217430712679993</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.129216260298202</v>
+        <v>6.218875465850234</v>
       </c>
       <c r="E7">
-        <v>15.17993479371136</v>
+        <v>28.6939546294436</v>
       </c>
       <c r="F7">
-        <v>29.16397279584906</v>
+        <v>48.65081722954531</v>
       </c>
       <c r="G7">
-        <v>43.20187414878671</v>
+        <v>78.89220881630884</v>
       </c>
       <c r="H7">
-        <v>14.30257651222966</v>
+        <v>19.61383430053038</v>
       </c>
       <c r="I7">
-        <v>17.38856299824779</v>
+        <v>15.69259979827783</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.83419240957982</v>
+        <v>16.63993565893848</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.889357710724763</v>
+        <v>10.07189696902258</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.386272154184288</v>
+        <v>6.927761462534806</v>
       </c>
       <c r="E8">
-        <v>16.46586561567118</v>
+        <v>32.28343237765781</v>
       </c>
       <c r="F8">
-        <v>31.14524790463039</v>
+        <v>54.48547941948202</v>
       </c>
       <c r="G8">
-        <v>46.99476461840648</v>
+        <v>88.38772385987036</v>
       </c>
       <c r="H8">
-        <v>14.84836263646827</v>
+        <v>21.97233526688965</v>
       </c>
       <c r="I8">
-        <v>17.48831115075836</v>
+        <v>16.22712496895306</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.07122325684947</v>
+        <v>17.44690696866401</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.48245444634245</v>
+        <v>11.55585895585727</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.847626781533176</v>
+        <v>8.313561151385944</v>
       </c>
       <c r="E9">
-        <v>18.96963095844109</v>
+        <v>39.29836858976719</v>
       </c>
       <c r="F9">
-        <v>34.79019700568814</v>
+        <v>65.58324063446864</v>
       </c>
       <c r="G9">
-        <v>53.76441982954865</v>
+        <v>106.4674663465093</v>
       </c>
       <c r="H9">
-        <v>15.90964749827232</v>
+        <v>26.46707208226047</v>
       </c>
       <c r="I9">
-        <v>17.71126666152004</v>
+        <v>17.26538367260164</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.54092831277462</v>
+        <v>18.94189970660573</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.892805469389883</v>
+        <v>12.52970929120776</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.159375015272185</v>
+        <v>9.393072066362281</v>
       </c>
       <c r="E10">
-        <v>20.7005264712871</v>
+        <v>44.79031850332395</v>
       </c>
       <c r="F10">
-        <v>37.29712272872882</v>
+        <v>73.90399863663313</v>
       </c>
       <c r="G10">
-        <v>58.30908890538318</v>
+        <v>120.0492414640809</v>
       </c>
       <c r="H10">
-        <v>16.67484774318615</v>
+        <v>29.8459066375682</v>
       </c>
       <c r="I10">
-        <v>17.89037526883937</v>
+        <v>18.01259935784355</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.88621396499388</v>
+        <v>19.97606265756465</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.073239364152251</v>
+        <v>12.9476170140277</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.295119806458914</v>
+        <v>9.924779221175783</v>
       </c>
       <c r="E11">
-        <v>21.44630217105968</v>
+        <v>47.51498107907734</v>
       </c>
       <c r="F11">
-        <v>38.39657939506925</v>
+        <v>77.88147330100377</v>
       </c>
       <c r="G11">
-        <v>60.28053908437305</v>
+        <v>126.5528085089365</v>
       </c>
       <c r="H11">
-        <v>17.01811053947613</v>
+        <v>31.46433111800171</v>
       </c>
       <c r="I11">
-        <v>17.97487022382017</v>
+        <v>18.34734226049188</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.04275315944065</v>
+        <v>20.43071426220712</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.140615808877813</v>
+        <v>13.10227306321354</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.345639535607845</v>
+        <v>10.13636775195779</v>
       </c>
       <c r="E12">
-        <v>21.72277565408117</v>
+        <v>48.60442632030572</v>
       </c>
       <c r="F12">
-        <v>38.8067745188044</v>
+        <v>79.43986259407187</v>
       </c>
       <c r="G12">
-        <v>61.01311911472015</v>
+        <v>129.1033499151021</v>
       </c>
       <c r="H12">
-        <v>17.14727530363974</v>
+        <v>32.09910688371922</v>
       </c>
       <c r="I12">
-        <v>18.00727319226982</v>
+        <v>18.47322318570789</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.10190618682361</v>
+        <v>20.60047737535906</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.126148118074395</v>
+        <v>13.06912484624305</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.334798663661699</v>
+        <v>10.0902363830599</v>
       </c>
       <c r="E13">
-        <v>21.66349534754383</v>
+        <v>48.36661410310734</v>
       </c>
       <c r="F13">
-        <v>38.71870855538847</v>
+        <v>79.10132678293832</v>
       </c>
       <c r="G13">
-        <v>60.85596817346871</v>
+        <v>128.5491594122267</v>
       </c>
       <c r="H13">
-        <v>17.11949578527255</v>
+        <v>31.96117757104114</v>
       </c>
       <c r="I13">
-        <v>18.00027699228534</v>
+        <v>18.44615360195221</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.08917283935257</v>
+        <v>20.56402467484065</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.078801786399699</v>
+        <v>12.96041265918633</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.299293861980987</v>
+        <v>9.941944613208301</v>
       </c>
       <c r="E14">
-        <v>21.46916648747204</v>
+        <v>47.60324170131946</v>
       </c>
       <c r="F14">
-        <v>38.43045085574376</v>
+        <v>78.00843325340345</v>
       </c>
       <c r="G14">
-        <v>60.34108956117144</v>
+        <v>126.7605436609517</v>
       </c>
       <c r="H14">
-        <v>17.02875414856346</v>
+        <v>31.51603064341671</v>
       </c>
       <c r="I14">
-        <v>17.97752804593549</v>
+        <v>18.35771691037965</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.04762249193302</v>
+        <v>20.4447296434782</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.049675604494446</v>
+        <v>12.89335534820416</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.277430761849357</v>
+        <v>9.852629584382049</v>
       </c>
       <c r="E15">
-        <v>21.34936291773622</v>
+        <v>47.14422680566005</v>
       </c>
       <c r="F15">
-        <v>38.25307759903486</v>
+        <v>77.34682033243338</v>
       </c>
       <c r="G15">
-        <v>60.02388868579952</v>
+        <v>125.6780976155799</v>
       </c>
       <c r="H15">
-        <v>16.97306174473784</v>
+        <v>31.24664253660732</v>
       </c>
       <c r="I15">
-        <v>17.96364578513084</v>
+        <v>18.30342859422273</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.02215401479311</v>
+        <v>20.37134134399616</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.880883512103347</v>
+        <v>12.5018940031287</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.150380618130106</v>
+        <v>9.359453866363785</v>
       </c>
       <c r="E16">
-        <v>20.65095500525945</v>
+        <v>44.61858315139339</v>
       </c>
       <c r="F16">
-        <v>37.2244235607972</v>
+        <v>73.64968622820912</v>
       </c>
       <c r="G16">
-        <v>58.17830377378787</v>
+        <v>119.6336921692034</v>
       </c>
       <c r="H16">
-        <v>16.65230639989389</v>
+        <v>29.74250584016871</v>
       </c>
       <c r="I16">
-        <v>17.88491171931956</v>
+        <v>17.99060724195167</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.87596887941638</v>
+        <v>19.94602056483716</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.77569792055426</v>
+        <v>12.25532470262211</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.070875926456215</v>
+        <v>9.069639047589078</v>
       </c>
       <c r="E17">
-        <v>20.21187991088275</v>
+        <v>43.14030145762344</v>
       </c>
       <c r="F17">
-        <v>36.58269053228319</v>
+        <v>71.44398488205546</v>
       </c>
       <c r="G17">
-        <v>57.02138715638986</v>
+        <v>116.0308201286632</v>
       </c>
       <c r="H17">
-        <v>16.45420217812308</v>
+        <v>28.846058319535</v>
       </c>
       <c r="I17">
-        <v>17.83736449730068</v>
+        <v>17.79727727844845</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.78611779882747</v>
+        <v>19.68095489707134</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.71461368730956</v>
+        <v>12.11114096131534</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.024575959885126</v>
+        <v>8.906406401175323</v>
       </c>
       <c r="E18">
-        <v>19.95541536592146</v>
+        <v>42.30925376478743</v>
       </c>
       <c r="F18">
-        <v>36.20973971098365</v>
+        <v>70.19141053180378</v>
       </c>
       <c r="G18">
-        <v>56.34693520985559</v>
+        <v>113.9857790194214</v>
       </c>
       <c r="H18">
-        <v>16.33981001259289</v>
+        <v>28.33726613138041</v>
       </c>
       <c r="I18">
-        <v>17.8103022940806</v>
+        <v>17.6855998026663</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.73439049486328</v>
+        <v>19.52701623627303</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.693832984641853</v>
+        <v>12.06191650564216</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.008801897977272</v>
+        <v>8.851640870270082</v>
       </c>
       <c r="E19">
-        <v>19.86790610021658</v>
+        <v>42.03065679258151</v>
       </c>
       <c r="F19">
-        <v>36.08281351125076</v>
+        <v>69.76955167229339</v>
       </c>
       <c r="G19">
-        <v>56.11703346922739</v>
+        <v>113.2971701553253</v>
       </c>
       <c r="H19">
-        <v>16.30100592805423</v>
+        <v>28.16595259224448</v>
       </c>
       <c r="I19">
-        <v>17.80118939117584</v>
+        <v>17.64770975113286</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.71686987832945</v>
+        <v>19.47464540078958</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.786955979029544</v>
+        <v>12.28181696041141</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.079398517153265</v>
+        <v>9.100108981442812</v>
       </c>
       <c r="E20">
-        <v>20.25902557245064</v>
+        <v>43.2955472212946</v>
       </c>
       <c r="F20">
-        <v>36.65140384155789</v>
+        <v>71.67699005828159</v>
       </c>
       <c r="G20">
-        <v>57.14547825128386</v>
+        <v>116.4113151973261</v>
       </c>
       <c r="H20">
-        <v>16.47533801822657</v>
+        <v>28.94072650946125</v>
       </c>
       <c r="I20">
-        <v>17.842396607743</v>
+        <v>17.81790819761058</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.79568785271756</v>
+        <v>19.70932576861094</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.092734726993198</v>
+        <v>12.99244155991444</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.309746544556469</v>
+        <v>9.985172229555642</v>
       </c>
       <c r="E21">
-        <v>21.52640628333927</v>
+        <v>47.82560118421774</v>
       </c>
       <c r="F21">
-        <v>38.51528771957199</v>
+        <v>78.32774261052114</v>
       </c>
       <c r="G21">
-        <v>60.49270200548502</v>
+        <v>127.2830476160726</v>
       </c>
       <c r="H21">
-        <v>17.0554304110521</v>
+        <v>31.64606848862706</v>
       </c>
       <c r="I21">
-        <v>17.9841991494933</v>
+        <v>18.38371778730686</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.05983060728496</v>
+        <v>20.47983568721166</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.287021218569393</v>
+        <v>13.43591967862776</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.455137147564349</v>
+        <v>10.62848554196553</v>
       </c>
       <c r="E22">
-        <v>22.32013858859541</v>
+        <v>51.15273412341581</v>
       </c>
       <c r="F22">
-        <v>39.69753703054367</v>
+        <v>83.0068713004506</v>
       </c>
       <c r="G22">
-        <v>62.59886043891643</v>
+        <v>134.9471908816516</v>
       </c>
       <c r="H22">
-        <v>17.42971607441627</v>
+        <v>33.55364072727316</v>
       </c>
       <c r="I22">
-        <v>18.07923203987227</v>
+        <v>18.74832924437955</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.23171317604657</v>
+        <v>20.96934909802549</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.183851410766975</v>
+        <v>13.20113979645824</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.378014062561288</v>
+        <v>10.27669120441179</v>
       </c>
       <c r="E23">
-        <v>21.89965602861509</v>
+        <v>49.32886037695863</v>
       </c>
       <c r="F23">
-        <v>39.06990661277872</v>
+        <v>80.46532830195137</v>
       </c>
       <c r="G23">
-        <v>61.4822596397713</v>
+        <v>130.7825003784469</v>
       </c>
       <c r="H23">
-        <v>17.23043429362993</v>
+        <v>32.51703088151404</v>
       </c>
       <c r="I23">
-        <v>18.02830472145925</v>
+        <v>18.55424479086268</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.14006050298211</v>
+        <v>20.70941231798719</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.781868111808391</v>
+        <v>12.2698473735842</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.075547295935355</v>
+        <v>9.08632325769946</v>
       </c>
       <c r="E24">
-        <v>20.23772358888641</v>
+        <v>43.22530352389212</v>
       </c>
       <c r="F24">
-        <v>36.62035102466096</v>
+        <v>71.57160166831443</v>
       </c>
       <c r="G24">
-        <v>57.08940569978319</v>
+        <v>116.2392140847111</v>
       </c>
       <c r="H24">
-        <v>16.46578405071612</v>
+        <v>28.89790715461453</v>
       </c>
       <c r="I24">
-        <v>17.84012073718834</v>
+        <v>17.80858259792758</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.79136144795664</v>
+        <v>19.69650411176672</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.326196084739871</v>
+        <v>11.17489577285955</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.727527600169029</v>
+        <v>7.934064160509231</v>
       </c>
       <c r="E25">
-        <v>18.29498466018679</v>
+        <v>37.37543895393695</v>
       </c>
       <c r="F25">
-        <v>33.83266512629792</v>
+        <v>62.58753621973656</v>
       </c>
       <c r="G25">
-        <v>52.00717024423898</v>
+        <v>101.5838375087876</v>
       </c>
       <c r="H25">
-        <v>15.62447975441807</v>
+        <v>25.25256024800279</v>
       </c>
       <c r="I25">
-        <v>17.64816122966614</v>
+        <v>16.98659684967532</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.41362653806358</v>
+        <v>18.54803743298111</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.29043874989134</v>
+        <v>17.99612301736966</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.117948433259054</v>
+        <v>2.103543711530142</v>
       </c>
       <c r="E2">
-        <v>33.24564014523217</v>
+        <v>25.85436814220435</v>
       </c>
       <c r="F2">
-        <v>56.03349572408071</v>
+        <v>33.88372630577436</v>
       </c>
       <c r="G2">
-        <v>90.90791262272087</v>
+        <v>52.49781410245837</v>
       </c>
       <c r="H2">
-        <v>22.59859069808383</v>
+        <v>1.751881706170998</v>
       </c>
       <c r="I2">
-        <v>16.37165960169562</v>
+        <v>3.526575789453477</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.44292247480563</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.54743050314812</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.66009174000652</v>
+        <v>11.94373407704424</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>13.86048416458881</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.642069640699011</v>
+        <v>16.90088379610868</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.564725168179692</v>
+        <v>2.10775528882037</v>
       </c>
       <c r="E3">
-        <v>30.44602407240646</v>
+        <v>24.46561113024187</v>
       </c>
       <c r="F3">
-        <v>51.50995540373385</v>
+        <v>31.61721698915072</v>
       </c>
       <c r="G3">
-        <v>83.54468293113764</v>
+        <v>48.78411207879266</v>
       </c>
       <c r="H3">
-        <v>20.76918405709201</v>
+        <v>1.61441202374416</v>
       </c>
       <c r="I3">
-        <v>15.95198825171206</v>
+        <v>3.658650347084723</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.72853455259723</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.80524283216336</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.03548212919459</v>
+        <v>11.18027643576711</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>13.80293664285936</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.219808664142498</v>
+        <v>16.18761955347135</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.22077972963008</v>
+        <v>2.111577665726</v>
       </c>
       <c r="E4">
-        <v>28.70360774165401</v>
+        <v>23.58546388368838</v>
       </c>
       <c r="F4">
-        <v>48.66662396442968</v>
+        <v>30.19989383926048</v>
       </c>
       <c r="G4">
-        <v>78.9179275777873</v>
+        <v>46.41714259959615</v>
       </c>
       <c r="H4">
-        <v>19.62021966259342</v>
+        <v>1.772070527039872</v>
       </c>
       <c r="I4">
-        <v>15.69401676763148</v>
+        <v>3.742718868794884</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.28117109288059</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.96624250011966</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.64211895543886</v>
+        <v>10.68702173353362</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>13.77065675442774</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.041664563526798</v>
+        <v>15.87723286541079</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.079077255977003</v>
+        <v>2.112480586934607</v>
       </c>
       <c r="E5">
-        <v>27.98506360375694</v>
+        <v>23.2292189639278</v>
       </c>
       <c r="F5">
-        <v>47.48847189592068</v>
+        <v>29.60377428875453</v>
       </c>
       <c r="G5">
-        <v>77.00104442509081</v>
+        <v>45.42910233198639</v>
       </c>
       <c r="H5">
-        <v>19.1443484240265</v>
+        <v>1.83768665460949</v>
       </c>
       <c r="I5">
-        <v>15.58900118244992</v>
+        <v>3.780373634326101</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.09446914202436</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.02871312022747</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.47958247474283</v>
+        <v>10.48338666906901</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>13.76122403897883</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.011717599186598</v>
+        <v>15.81339819882208</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.055442832268699</v>
+        <v>2.111501575664163</v>
       </c>
       <c r="E6">
-        <v>27.86517127601033</v>
+        <v>23.18109286897855</v>
       </c>
       <c r="F6">
-        <v>47.29159112462241</v>
+        <v>29.49698498804097</v>
       </c>
       <c r="G6">
-        <v>76.6807253405557</v>
+        <v>45.25125593258092</v>
       </c>
       <c r="H6">
-        <v>19.06483765744455</v>
+        <v>1.848974586996451</v>
       </c>
       <c r="I6">
-        <v>15.57157555785395</v>
+        <v>3.790037635090332</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.06044952300397</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.03446868515507</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.45246571237606</v>
+        <v>10.45351207667462</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>13.76333528028511</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.217430712679993</v>
+        <v>16.15227443467116</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.218875465850234</v>
+        <v>2.108465329168091</v>
       </c>
       <c r="E7">
-        <v>28.6939546294436</v>
+        <v>23.61141563457014</v>
       </c>
       <c r="F7">
-        <v>48.65081722954531</v>
+        <v>30.17315321910504</v>
       </c>
       <c r="G7">
-        <v>78.89220881630884</v>
+        <v>46.3712123674909</v>
       </c>
       <c r="H7">
-        <v>19.61383430053038</v>
+        <v>1.773813799555733</v>
       </c>
       <c r="I7">
-        <v>15.69259979827783</v>
+        <v>3.752115464884066</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.27089001022163</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.95437505394293</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.63993565893848</v>
+        <v>10.69579035511652</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>13.78055552016355</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.07189696902258</v>
+        <v>17.58869740536386</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.927761462534806</v>
+        <v>2.100611877599657</v>
       </c>
       <c r="E8">
-        <v>32.28343237765781</v>
+        <v>25.41950784174192</v>
       </c>
       <c r="F8">
-        <v>54.48547941948202</v>
+        <v>33.06253501287335</v>
       </c>
       <c r="G8">
-        <v>88.38772385987036</v>
+        <v>51.19936681372469</v>
       </c>
       <c r="H8">
-        <v>21.97233526688965</v>
+        <v>1.667613808380103</v>
       </c>
       <c r="I8">
-        <v>16.22712496895306</v>
+        <v>3.582745126493581</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.18889343688456</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.61914372020677</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.44690696866401</v>
+        <v>11.69959283736518</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>13.85376478925414</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.55585895585727</v>
+        <v>20.1296752884769</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.313561151385944</v>
+        <v>2.102070412856211</v>
       </c>
       <c r="E9">
-        <v>39.29836858976719</v>
+        <v>28.70067983496124</v>
       </c>
       <c r="F9">
-        <v>65.58324063446864</v>
+        <v>38.6709285907971</v>
       </c>
       <c r="G9">
-        <v>106.4674663465093</v>
+        <v>59.94184526138147</v>
       </c>
       <c r="H9">
-        <v>26.46707208226047</v>
+        <v>2.256237723232366</v>
       </c>
       <c r="I9">
-        <v>17.26538367260164</v>
+        <v>3.258958851037734</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14.93597681125166</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.00460416131938</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.94189970660573</v>
+        <v>13.45599041951699</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>14.00276279982666</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.52970929120776</v>
+        <v>21.68697130441497</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.393072066362281</v>
+        <v>2.172873307131484</v>
       </c>
       <c r="E10">
-        <v>44.79031850332395</v>
+        <v>31.21144782248373</v>
       </c>
       <c r="F10">
-        <v>73.90399863663313</v>
+        <v>42.37925459593559</v>
       </c>
       <c r="G10">
-        <v>120.0492414640809</v>
+        <v>65.68984922292383</v>
       </c>
       <c r="H10">
-        <v>29.8459066375682</v>
+        <v>2.660730910979635</v>
       </c>
       <c r="I10">
-        <v>18.01259935784355</v>
+        <v>3.046340930700594</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>16.35447254918595</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.51366401556526</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.97606265756465</v>
+        <v>14.50006774353388</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>14.1797777186929</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.9476170140277</v>
+        <v>21.48419299127785</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.924779221175783</v>
+        <v>2.105423576565775</v>
       </c>
       <c r="E11">
-        <v>47.51498107907734</v>
+        <v>34.20967373134241</v>
       </c>
       <c r="F11">
-        <v>77.88147330100377</v>
+        <v>43.03853959239725</v>
       </c>
       <c r="G11">
-        <v>126.5528085089365</v>
+        <v>66.53300642979586</v>
       </c>
       <c r="H11">
-        <v>31.46433111800171</v>
+        <v>3.403851520236425</v>
       </c>
       <c r="I11">
-        <v>18.34734226049188</v>
+        <v>3.026365484023073</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>16.55506794135348</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.99012405984606</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.43071426220712</v>
+        <v>13.82487404508749</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>14.7246867864227</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.10227306321354</v>
+        <v>21.02343586133004</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.13636775195779</v>
+        <v>2.035530779531932</v>
       </c>
       <c r="E12">
-        <v>48.60442632030572</v>
+        <v>36.25839872018805</v>
       </c>
       <c r="F12">
-        <v>79.43986259407187</v>
+        <v>42.84991072682844</v>
       </c>
       <c r="G12">
-        <v>129.1033499151021</v>
+        <v>66.0940377050507</v>
       </c>
       <c r="H12">
-        <v>32.09910688371922</v>
+        <v>4.530259835229147</v>
       </c>
       <c r="I12">
-        <v>18.47322318570789</v>
+        <v>3.032634706520276</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>16.44000672492326</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.80171649885258</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.60047737535906</v>
+        <v>13.03183486612333</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>15.16542294521293</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.06912484624305</v>
+        <v>20.28566094601518</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.0902363830599</v>
+        <v>1.954318199821954</v>
       </c>
       <c r="E13">
-        <v>48.36661410310734</v>
+        <v>37.78196654688549</v>
       </c>
       <c r="F13">
-        <v>79.10132678293832</v>
+        <v>41.95407850576759</v>
       </c>
       <c r="G13">
-        <v>128.5491594122267</v>
+        <v>64.56439087611381</v>
       </c>
       <c r="H13">
-        <v>31.96117757104114</v>
+        <v>5.76254163272187</v>
       </c>
       <c r="I13">
-        <v>18.44615360195221</v>
+        <v>3.074638898264569</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>16.05536846571011</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.84142447490678</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.56402467484065</v>
+        <v>12.09153942003423</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>15.56129095344777</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.96041265918633</v>
+        <v>19.62585156089656</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.941944613208301</v>
+        <v>1.894585450724981</v>
       </c>
       <c r="E14">
-        <v>47.60324170131946</v>
+        <v>38.64579954533939</v>
       </c>
       <c r="F14">
-        <v>78.00843325340345</v>
+        <v>40.98864226337118</v>
       </c>
       <c r="G14">
-        <v>126.7605436609517</v>
+        <v>62.96840671063643</v>
       </c>
       <c r="H14">
-        <v>31.51603064341671</v>
+        <v>6.663774803844381</v>
       </c>
       <c r="I14">
-        <v>18.35771691037965</v>
+        <v>3.122689678504915</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>15.65613710677017</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.9872148989148</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.4447296434782</v>
+        <v>11.360599899532</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>15.82331891104681</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.89335534820416</v>
+        <v>19.39443706495823</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.852629584382049</v>
+        <v>1.874737831044072</v>
       </c>
       <c r="E15">
-        <v>47.14422680566005</v>
+        <v>38.75198693917529</v>
       </c>
       <c r="F15">
-        <v>77.34682033243338</v>
+        <v>40.59232460714595</v>
       </c>
       <c r="G15">
-        <v>125.6780976155799</v>
+        <v>62.32918601285164</v>
       </c>
       <c r="H15">
-        <v>31.24664253660732</v>
+        <v>6.867985357892223</v>
       </c>
       <c r="I15">
-        <v>18.30342859422273</v>
+        <v>3.146880156295442</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>15.4969727864927</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.054373430087</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.37134134399616</v>
+        <v>11.15031420095668</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>15.87815582961419</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.5018940031287</v>
+        <v>18.83217559271963</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.359453866363785</v>
+        <v>1.813251375877195</v>
       </c>
       <c r="E16">
-        <v>44.61858315139339</v>
+        <v>37.53614614303768</v>
       </c>
       <c r="F16">
-        <v>73.64968622820912</v>
+        <v>39.13080051867374</v>
       </c>
       <c r="G16">
-        <v>119.6336921692034</v>
+        <v>60.07291426698945</v>
       </c>
       <c r="H16">
-        <v>29.74250584016871</v>
+        <v>6.58353897627305</v>
       </c>
       <c r="I16">
-        <v>17.99060724195167</v>
+        <v>3.236102144307001</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>14.94036951951277</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.24087434922424</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.94602056483716</v>
+        <v>10.83888297306395</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>15.71411039778368</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.25532470262211</v>
+        <v>18.76056028022025</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.069639047589078</v>
+        <v>1.797082373347433</v>
       </c>
       <c r="E17">
-        <v>43.14030145762344</v>
+        <v>36.09625955081196</v>
       </c>
       <c r="F17">
-        <v>71.44398488205546</v>
+        <v>38.53669887007641</v>
       </c>
       <c r="G17">
-        <v>116.0308201286632</v>
+        <v>59.2164730175942</v>
       </c>
       <c r="H17">
-        <v>28.846058319535</v>
+        <v>5.835171613356883</v>
       </c>
       <c r="I17">
-        <v>17.79727727844845</v>
+        <v>3.279641237692759</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>14.73237636544474</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.29957904046203</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.68095489707134</v>
+        <v>11.00374970847283</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>15.4481238697029</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.11114096131534</v>
+        <v>19.13191649699598</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.906406401175323</v>
+        <v>1.830495274450862</v>
       </c>
       <c r="E18">
-        <v>42.30925376478743</v>
+        <v>34.30508153340987</v>
       </c>
       <c r="F18">
-        <v>70.19141053180378</v>
+        <v>38.64897927526361</v>
       </c>
       <c r="G18">
-        <v>113.9857790194214</v>
+        <v>59.51301135174513</v>
       </c>
       <c r="H18">
-        <v>28.33726613138041</v>
+        <v>4.645891859315519</v>
       </c>
       <c r="I18">
-        <v>17.6855998026663</v>
+        <v>3.276590889200881</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>14.81175656292154</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.31774432533434</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.52701623627303</v>
+        <v>11.60646497039109</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>15.06599635577934</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.06191650564216</v>
+        <v>19.77656548451176</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.851640870270082</v>
+        <v>1.914033508384583</v>
       </c>
       <c r="E19">
-        <v>42.03065679258151</v>
+        <v>32.48409114194105</v>
       </c>
       <c r="F19">
-        <v>69.76955167229339</v>
+        <v>39.28915053356034</v>
       </c>
       <c r="G19">
-        <v>113.2971701553253</v>
+        <v>60.65900594478293</v>
       </c>
       <c r="H19">
-        <v>28.16595259224448</v>
+        <v>3.358676965912518</v>
       </c>
       <c r="I19">
-        <v>17.64770975113286</v>
+        <v>3.250992411145549</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>15.10190042559981</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.39598857264528</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.47464540078958</v>
+        <v>12.53677829951572</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>14.66482662983885</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.28181696041141</v>
+        <v>21.21024152604414</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.100108981442812</v>
+        <v>2.124054486606552</v>
       </c>
       <c r="E20">
-        <v>43.2955472212946</v>
+        <v>30.64909134996</v>
       </c>
       <c r="F20">
-        <v>71.67699005828159</v>
+        <v>41.37516286016347</v>
       </c>
       <c r="G20">
-        <v>116.4113151973261</v>
+        <v>64.1242075098331</v>
       </c>
       <c r="H20">
-        <v>28.94072650946125</v>
+        <v>2.551762378977696</v>
       </c>
       <c r="I20">
-        <v>17.81790819761058</v>
+        <v>3.131181214929068</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>15.96745311094131</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.60298125973163</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.70932576861094</v>
+        <v>14.25371567164381</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>14.16901720561138</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.99244155991444</v>
+        <v>22.51351429852306</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.985172229555642</v>
+        <v>2.273597096931061</v>
       </c>
       <c r="E21">
-        <v>47.82560118421774</v>
+        <v>32.19519074328174</v>
       </c>
       <c r="F21">
-        <v>78.32774261052114</v>
+        <v>44.3180697368314</v>
       </c>
       <c r="G21">
-        <v>127.2830476160726</v>
+        <v>68.72042379707952</v>
       </c>
       <c r="H21">
-        <v>31.64606848862706</v>
+        <v>2.878530150140389</v>
       </c>
       <c r="I21">
-        <v>18.38371778730686</v>
+        <v>2.955196457589359</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>17.10420170003119</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.3048489626761</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.47983568721166</v>
+        <v>15.22048238320303</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>14.22934061518459</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.43591967862776</v>
+        <v>23.30745680687071</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.62848554196553</v>
+        <v>2.364069311146505</v>
       </c>
       <c r="E22">
-        <v>51.15273412341581</v>
+        <v>33.26722497050728</v>
       </c>
       <c r="F22">
-        <v>83.0068713004506</v>
+        <v>46.1516430591637</v>
       </c>
       <c r="G22">
-        <v>134.9471908816516</v>
+        <v>71.57748502071053</v>
       </c>
       <c r="H22">
-        <v>33.55364072727316</v>
+        <v>3.084115549137482</v>
       </c>
       <c r="I22">
-        <v>18.74832924437955</v>
+        <v>2.833495864793607</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>17.81108576659997</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.10575156888419</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.96934909802549</v>
+        <v>15.75219697166139</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>14.28087737775419</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.20113979645824</v>
+        <v>22.91408077625852</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.27669120441179</v>
+        <v>2.318102331575713</v>
       </c>
       <c r="E23">
-        <v>49.32886037695863</v>
+        <v>32.6687932558308</v>
       </c>
       <c r="F23">
-        <v>80.46532830195137</v>
+        <v>45.19248094150171</v>
       </c>
       <c r="G23">
-        <v>130.7825003784469</v>
+        <v>70.08557719564048</v>
       </c>
       <c r="H23">
-        <v>32.51703088151404</v>
+        <v>2.975185869291828</v>
       </c>
       <c r="I23">
-        <v>18.55424479086268</v>
+        <v>2.886585946237891</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>17.44203513149131</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.22643315698675</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.70941231798719</v>
+        <v>15.46057259712972</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>14.2398509722618</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.2698473735842</v>
+        <v>21.31050637537334</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.08632325769946</v>
+        <v>2.139289642515588</v>
       </c>
       <c r="E24">
-        <v>43.22530352389212</v>
+        <v>30.41017035328231</v>
       </c>
       <c r="F24">
-        <v>71.57160166831443</v>
+        <v>41.44152176410213</v>
       </c>
       <c r="G24">
-        <v>116.2392140847111</v>
+        <v>64.24795868230643</v>
       </c>
       <c r="H24">
-        <v>28.89790715461453</v>
+        <v>2.558244367334256</v>
       </c>
       <c r="I24">
-        <v>17.80858259792758</v>
+        <v>3.110299345493851</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>15.99890898720135</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.66387512623493</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.69650411176672</v>
+        <v>14.32974715632885</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>14.11038440880813</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.17489577285955</v>
+        <v>19.42993590914471</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.934064160509231</v>
+        <v>2.094686829924528</v>
       </c>
       <c r="E25">
-        <v>37.37543895393695</v>
+        <v>27.88341713106448</v>
       </c>
       <c r="F25">
-        <v>62.58753621973656</v>
+        <v>37.17750826228405</v>
       </c>
       <c r="G25">
-        <v>101.5838375087876</v>
+        <v>57.61351165782214</v>
       </c>
       <c r="H25">
-        <v>25.25256024800279</v>
+        <v>2.098776877835457</v>
       </c>
       <c r="I25">
-        <v>16.98659684967532</v>
+        <v>3.36022531849687</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>14.45362224835904</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.14647675372462</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.54803743298111</v>
+        <v>13.01868970578426</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.97943162220169</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.99612301736966</v>
+        <v>17.80202137954532</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.103543711530142</v>
+        <v>2.24243570201792</v>
       </c>
       <c r="E2">
-        <v>25.85436814220435</v>
+        <v>25.08439897506194</v>
       </c>
       <c r="F2">
-        <v>33.88372630577436</v>
+        <v>33.74673983445933</v>
       </c>
       <c r="G2">
-        <v>52.49781410245837</v>
+        <v>52.46610957034724</v>
       </c>
       <c r="H2">
-        <v>1.751881706170998</v>
+        <v>1.831741373005525</v>
       </c>
       <c r="I2">
-        <v>3.526575789453477</v>
+        <v>3.319495745030573</v>
       </c>
       <c r="J2">
-        <v>13.44292247480563</v>
+        <v>14.03766281988713</v>
       </c>
       <c r="K2">
-        <v>14.54743050314812</v>
+        <v>14.01311382197084</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.2710105275184</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.37811257490061</v>
       </c>
       <c r="N2">
-        <v>11.94373407704424</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>13.86048416458881</v>
+        <v>11.86268578106232</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.76321905907857</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.90088379610868</v>
+        <v>16.74010262897418</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.10775528882037</v>
+        <v>2.243320683064923</v>
       </c>
       <c r="E3">
-        <v>24.46561113024187</v>
+        <v>23.67236376557052</v>
       </c>
       <c r="F3">
-        <v>31.61721698915072</v>
+        <v>31.5940488475205</v>
       </c>
       <c r="G3">
-        <v>48.78411207879266</v>
+        <v>48.76430399061584</v>
       </c>
       <c r="H3">
-        <v>1.61441202374416</v>
+        <v>1.606157465340619</v>
       </c>
       <c r="I3">
-        <v>3.658650347084723</v>
+        <v>3.432022047991504</v>
       </c>
       <c r="J3">
-        <v>12.72853455259723</v>
+        <v>13.37827485771498</v>
       </c>
       <c r="K3">
-        <v>14.80524283216336</v>
+        <v>14.25636890642249</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.45954814514794</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.605478389917588</v>
       </c>
       <c r="N3">
-        <v>11.18027643576711</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>13.80293664285936</v>
+        <v>11.11589471161977</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.67061780041793</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.18761955347135</v>
+        <v>16.04693600471257</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.111577665726</v>
+        <v>2.244109508891114</v>
       </c>
       <c r="E4">
-        <v>23.58546388368838</v>
+        <v>22.77562184842599</v>
       </c>
       <c r="F4">
-        <v>30.19989383926048</v>
+        <v>30.22022665427973</v>
       </c>
       <c r="G4">
-        <v>46.41714259959615</v>
+        <v>46.38797741678415</v>
       </c>
       <c r="H4">
-        <v>1.772070527039872</v>
+        <v>1.659802079515827</v>
       </c>
       <c r="I4">
-        <v>3.742718868794884</v>
+        <v>3.504003333735907</v>
       </c>
       <c r="J4">
-        <v>12.28117109288059</v>
+        <v>12.96168488321842</v>
       </c>
       <c r="K4">
-        <v>14.96624250011966</v>
+        <v>14.40791596983879</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.58243600555093</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.755523152797121</v>
       </c>
       <c r="N4">
-        <v>10.68702173353362</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>13.77065675442774</v>
+        <v>10.65242912416305</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.61744916277755</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.87723286541079</v>
+        <v>15.74525666729656</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.112480586934607</v>
+        <v>2.243653014071149</v>
       </c>
       <c r="E5">
-        <v>23.2292189639278</v>
+        <v>22.41181030421404</v>
       </c>
       <c r="F5">
-        <v>29.60377428875453</v>
+        <v>29.64218423047322</v>
       </c>
       <c r="G5">
-        <v>45.42910233198639</v>
+        <v>45.38422251207929</v>
       </c>
       <c r="H5">
-        <v>1.83768665460949</v>
+        <v>1.720582579628133</v>
       </c>
       <c r="I5">
-        <v>3.780373634326101</v>
+        <v>3.537157216368158</v>
       </c>
       <c r="J5">
-        <v>12.09446914202436</v>
+        <v>12.78700982515844</v>
       </c>
       <c r="K5">
-        <v>15.02871312022747</v>
+        <v>14.46664802240873</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.62961233942136</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.81856915050807</v>
       </c>
       <c r="N5">
-        <v>10.48338666906901</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>13.76122403897883</v>
+        <v>10.46159599137994</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.59951327186097</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.81339819882208</v>
+        <v>15.68365236706494</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.111501575664163</v>
+        <v>2.242564802024856</v>
       </c>
       <c r="E6">
-        <v>23.18109286897855</v>
+        <v>22.36203084097827</v>
       </c>
       <c r="F6">
-        <v>29.49698498804097</v>
+        <v>29.53893524609623</v>
       </c>
       <c r="G6">
-        <v>45.25125593258092</v>
+        <v>45.20468754704049</v>
       </c>
       <c r="H6">
-        <v>1.848974586996451</v>
+        <v>1.731048911026421</v>
       </c>
       <c r="I6">
-        <v>3.790037635090332</v>
+        <v>3.546666162772751</v>
       </c>
       <c r="J6">
-        <v>12.06044952300397</v>
+        <v>12.75524765676158</v>
       </c>
       <c r="K6">
-        <v>15.03446868515507</v>
+        <v>14.47206929741748</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.63187502833576</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.828363796519474</v>
       </c>
       <c r="N6">
-        <v>10.45351207667462</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>13.76333528028511</v>
+        <v>10.4335738399144</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.60002809977695</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.15227443467116</v>
+        <v>16.00991600616371</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.108465329168091</v>
+        <v>2.235325547998144</v>
       </c>
       <c r="E7">
-        <v>23.61141563457014</v>
+        <v>22.77840235894357</v>
       </c>
       <c r="F7">
-        <v>30.17315321910504</v>
+        <v>30.15341598448847</v>
       </c>
       <c r="G7">
-        <v>46.3712123674909</v>
+        <v>46.41513698783302</v>
       </c>
       <c r="H7">
-        <v>1.773813799555733</v>
+        <v>1.66228555421236</v>
       </c>
       <c r="I7">
-        <v>3.752115464884066</v>
+        <v>3.515251797969307</v>
       </c>
       <c r="J7">
-        <v>12.27089001022163</v>
+        <v>12.86791305719151</v>
       </c>
       <c r="K7">
-        <v>14.95437505394293</v>
+        <v>14.39568716886498</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.56642840310011</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.75353363556879</v>
       </c>
       <c r="N7">
-        <v>10.69579035511652</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>13.78055552016355</v>
+        <v>10.65343531923198</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.62814406680148</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.58869740536386</v>
+        <v>17.39675572695428</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.100611877599657</v>
+        <v>2.219190384125797</v>
       </c>
       <c r="E8">
-        <v>25.41950784174192</v>
+        <v>24.5716424095987</v>
       </c>
       <c r="F8">
-        <v>33.06253501287335</v>
+        <v>32.8658495356778</v>
       </c>
       <c r="G8">
-        <v>51.19936681372469</v>
+        <v>51.38900897200636</v>
       </c>
       <c r="H8">
-        <v>1.667613808380103</v>
+        <v>1.751152109371624</v>
       </c>
       <c r="I8">
-        <v>3.582745126493581</v>
+        <v>3.372067564255307</v>
       </c>
       <c r="J8">
-        <v>13.18889343688456</v>
+        <v>13.53857379577492</v>
       </c>
       <c r="K8">
-        <v>14.61914372020677</v>
+        <v>14.0779004839864</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.31315905935044</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.447492821917116</v>
       </c>
       <c r="N8">
-        <v>11.69959283736518</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>13.85376478925414</v>
+        <v>11.58921884229934</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.74861524393301</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.1296752884769</v>
+        <v>19.849784481109</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.102070412856211</v>
+        <v>2.216607732870986</v>
       </c>
       <c r="E9">
-        <v>28.70067983496124</v>
+        <v>27.88516915061374</v>
       </c>
       <c r="F9">
-        <v>38.6709285907971</v>
+        <v>38.16011782032815</v>
       </c>
       <c r="G9">
-        <v>59.94184526138147</v>
+        <v>60.12217176170606</v>
       </c>
       <c r="H9">
-        <v>2.256237723232366</v>
+        <v>2.294262702080852</v>
       </c>
       <c r="I9">
-        <v>3.258958851037734</v>
+        <v>3.095377431003739</v>
       </c>
       <c r="J9">
-        <v>14.93597681125166</v>
+        <v>15.07892370155202</v>
       </c>
       <c r="K9">
-        <v>14.00460416131938</v>
+        <v>13.4951178748351</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.90138963563876</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.94119143822399</v>
       </c>
       <c r="N9">
-        <v>13.45599041951699</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>14.00276279982666</v>
+        <v>13.38743414713107</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.99048265811819</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.68697130441497</v>
+        <v>21.34170934340608</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.172873307131484</v>
+        <v>2.161647731607327</v>
       </c>
       <c r="E10">
-        <v>31.21144782248373</v>
+        <v>30.2902669387252</v>
       </c>
       <c r="F10">
-        <v>42.37925459593559</v>
+        <v>41.53865230282612</v>
       </c>
       <c r="G10">
-        <v>65.68984922292383</v>
+        <v>66.17975467925982</v>
       </c>
       <c r="H10">
-        <v>2.660730910979635</v>
+        <v>2.661858440901653</v>
       </c>
       <c r="I10">
-        <v>3.046340930700594</v>
+        <v>2.919340522870434</v>
       </c>
       <c r="J10">
-        <v>16.35447254918595</v>
+        <v>15.69957702215818</v>
       </c>
       <c r="K10">
-        <v>13.51366401556526</v>
+        <v>13.0339703617443</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.60604681500334</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.588579399034558</v>
       </c>
       <c r="N10">
-        <v>14.50006774353388</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>14.1797777186929</v>
+        <v>14.41692009277103</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>14.24136442489453</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.48419299127785</v>
+        <v>21.21653722428307</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.105423576565775</v>
+        <v>1.911522936519241</v>
       </c>
       <c r="E11">
-        <v>34.20967373134241</v>
+        <v>32.96933879943003</v>
       </c>
       <c r="F11">
-        <v>43.03853959239725</v>
+        <v>41.81655188829272</v>
       </c>
       <c r="G11">
-        <v>66.53300642979586</v>
+        <v>67.80563400270452</v>
       </c>
       <c r="H11">
-        <v>3.403851520236425</v>
+        <v>3.389709637422194</v>
       </c>
       <c r="I11">
-        <v>3.026365484023073</v>
+        <v>2.914154700276706</v>
       </c>
       <c r="J11">
-        <v>16.55506794135348</v>
+        <v>14.90410796267417</v>
       </c>
       <c r="K11">
-        <v>12.99012405984606</v>
+        <v>12.62539341184242</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.37392833787338</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.227366685166546</v>
       </c>
       <c r="N11">
-        <v>13.82487404508749</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>14.7246867864227</v>
+        <v>13.62463401995164</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>14.77893614677713</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.02343586133004</v>
+        <v>20.84473928921257</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.035530779531932</v>
+        <v>1.743666385976381</v>
       </c>
       <c r="E12">
-        <v>36.25839872018805</v>
+        <v>34.8165142435827</v>
       </c>
       <c r="F12">
-        <v>42.84991072682844</v>
+        <v>41.48339586406615</v>
       </c>
       <c r="G12">
-        <v>66.0940377050507</v>
+        <v>67.78098402129456</v>
       </c>
       <c r="H12">
-        <v>4.530259835229147</v>
+        <v>4.515901595414199</v>
       </c>
       <c r="I12">
-        <v>3.032634706520276</v>
+        <v>2.92185074803995</v>
       </c>
       <c r="J12">
-        <v>16.44000672492326</v>
+        <v>14.34916132878987</v>
       </c>
       <c r="K12">
-        <v>12.80171649885258</v>
+        <v>12.4993356331204</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.34039573995886</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.077359095545859</v>
       </c>
       <c r="N12">
-        <v>13.03183486612333</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>15.16542294521293</v>
+        <v>12.75530402483192</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>15.18363403828683</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.28566094601518</v>
+        <v>20.22302501438332</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.954318199821954</v>
+        <v>1.635397599734476</v>
       </c>
       <c r="E13">
-        <v>37.78196654688549</v>
+        <v>36.26957594426045</v>
       </c>
       <c r="F13">
-        <v>41.95407850576759</v>
+        <v>40.69467690514517</v>
       </c>
       <c r="G13">
-        <v>64.56439087611381</v>
+        <v>66.29867557061947</v>
       </c>
       <c r="H13">
-        <v>5.76254163272187</v>
+        <v>5.753631893916598</v>
       </c>
       <c r="I13">
-        <v>3.074638898264569</v>
+        <v>2.956964361129132</v>
       </c>
       <c r="J13">
-        <v>16.05536846571011</v>
+        <v>14.09883893110823</v>
       </c>
       <c r="K13">
-        <v>12.84142447490678</v>
+        <v>12.55152509967288</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.40361839364767</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.084841685925177</v>
       </c>
       <c r="N13">
-        <v>12.09153942003423</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>15.56129095344777</v>
+        <v>11.77451516947836</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>15.51371927609142</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.62585156089656</v>
+        <v>19.65837233921877</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.894585450724981</v>
+        <v>1.586732545124637</v>
       </c>
       <c r="E14">
-        <v>38.64579954533939</v>
+        <v>37.14273603891009</v>
       </c>
       <c r="F14">
-        <v>40.98864226337118</v>
+        <v>39.91678749558915</v>
       </c>
       <c r="G14">
-        <v>62.96840671063643</v>
+        <v>64.57667861571451</v>
       </c>
       <c r="H14">
-        <v>6.663774803844381</v>
+        <v>6.659361350165931</v>
       </c>
       <c r="I14">
-        <v>3.122689678504915</v>
+        <v>2.997136327325856</v>
       </c>
       <c r="J14">
-        <v>15.65613710677017</v>
+        <v>14.04916034051995</v>
       </c>
       <c r="K14">
-        <v>12.9872148989148</v>
+        <v>12.67248120112435</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.48480914901963</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.176386852996407</v>
       </c>
       <c r="N14">
-        <v>11.360599899532</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>15.82331891104681</v>
+        <v>11.02925429291368</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>15.71508785656688</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.39443706495823</v>
+        <v>19.45617419797206</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.874737831044072</v>
+        <v>1.580370689250035</v>
       </c>
       <c r="E15">
-        <v>38.75198693917529</v>
+        <v>37.27808479058636</v>
       </c>
       <c r="F15">
-        <v>40.59232460714595</v>
+        <v>39.61545397923082</v>
       </c>
       <c r="G15">
-        <v>62.32918601285164</v>
+        <v>63.83824015269228</v>
       </c>
       <c r="H15">
-        <v>6.867985357892223</v>
+        <v>6.865340787330576</v>
       </c>
       <c r="I15">
-        <v>3.146880156295442</v>
+        <v>3.018387921900631</v>
       </c>
       <c r="J15">
-        <v>15.4969727864927</v>
+        <v>14.08694896810859</v>
       </c>
       <c r="K15">
-        <v>13.054373430087</v>
+        <v>12.72511648265373</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.50990589817872</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.225785503793112</v>
       </c>
       <c r="N15">
-        <v>11.15031420095668</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>15.87815582961419</v>
+        <v>10.82152578088342</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>15.7497790251186</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.83217559271963</v>
+        <v>18.9343958858936</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.813251375877195</v>
+        <v>1.663995072067423</v>
       </c>
       <c r="E16">
-        <v>37.53614614303768</v>
+        <v>36.29822362859422</v>
       </c>
       <c r="F16">
-        <v>39.13080051867374</v>
+        <v>38.56547277516006</v>
       </c>
       <c r="G16">
-        <v>60.07291426698945</v>
+        <v>60.99877118073061</v>
       </c>
       <c r="H16">
-        <v>6.58353897627305</v>
+        <v>6.588688335244665</v>
       </c>
       <c r="I16">
-        <v>3.236102144307001</v>
+        <v>3.091479375403323</v>
       </c>
       <c r="J16">
-        <v>14.94036951951277</v>
+        <v>14.47540395860831</v>
       </c>
       <c r="K16">
-        <v>13.24087434922424</v>
+        <v>12.8698028235023</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.51421298800677</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.413153316563921</v>
       </c>
       <c r="N16">
-        <v>10.83888297306395</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>15.71411039778368</v>
+        <v>10.56431068716176</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>15.5493290258144</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.76056028022025</v>
+        <v>18.83639818004056</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.797082373347433</v>
+        <v>1.751777670800593</v>
       </c>
       <c r="E17">
-        <v>36.09625955081196</v>
+        <v>35.00269614249911</v>
       </c>
       <c r="F17">
-        <v>38.53669887007641</v>
+        <v>38.13681646787303</v>
       </c>
       <c r="G17">
-        <v>59.2164730175942</v>
+        <v>59.83507432703059</v>
       </c>
       <c r="H17">
-        <v>5.835171613356883</v>
+        <v>5.845060028371502</v>
       </c>
       <c r="I17">
-        <v>3.279641237692759</v>
+        <v>3.127369156044045</v>
       </c>
       <c r="J17">
-        <v>14.73237636544474</v>
+        <v>14.69644951372868</v>
       </c>
       <c r="K17">
-        <v>13.29957904046203</v>
+        <v>12.92193646016749</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.4951370971299</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.496265503021675</v>
       </c>
       <c r="N17">
-        <v>11.00374970847283</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>15.4481238697029</v>
+        <v>10.77278302154663</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>15.2923313425559</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.13191649699598</v>
+        <v>19.12604678277031</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.830495274450862</v>
+        <v>1.868489244588106</v>
       </c>
       <c r="E18">
-        <v>34.30508153340987</v>
+        <v>33.33134802627185</v>
       </c>
       <c r="F18">
-        <v>38.64897927526361</v>
+        <v>38.28502364169264</v>
       </c>
       <c r="G18">
-        <v>59.51301135174513</v>
+        <v>59.92256500710931</v>
       </c>
       <c r="H18">
-        <v>4.645891859315519</v>
+        <v>4.660365631448735</v>
       </c>
       <c r="I18">
-        <v>3.276590889200881</v>
+        <v>3.120993782087888</v>
       </c>
       <c r="J18">
-        <v>14.81175656292154</v>
+        <v>14.95228874522535</v>
       </c>
       <c r="K18">
-        <v>13.31774432533434</v>
+        <v>12.94388790908065</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.4890896937236</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.527318230796054</v>
       </c>
       <c r="N18">
-        <v>11.60646497039109</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>15.06599635577934</v>
+        <v>11.4264048976064</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>14.95208812869281</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.77656548451176</v>
+        <v>19.65856306739929</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.914033508384583</v>
+        <v>2.003731554556695</v>
       </c>
       <c r="E19">
-        <v>32.48409114194105</v>
+        <v>31.6077820500941</v>
       </c>
       <c r="F19">
-        <v>39.28915053356034</v>
+        <v>38.88518032957225</v>
       </c>
       <c r="G19">
-        <v>60.65900594478293</v>
+        <v>60.91381401363609</v>
       </c>
       <c r="H19">
-        <v>3.358676965912518</v>
+        <v>3.378577885929198</v>
       </c>
       <c r="I19">
-        <v>3.250992411145549</v>
+        <v>3.099821051412916</v>
       </c>
       <c r="J19">
-        <v>15.10190042559981</v>
+        <v>15.26573013972974</v>
       </c>
       <c r="K19">
-        <v>13.39598857264528</v>
+        <v>13.00436881015601</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.53792890594038</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.569406946723083</v>
       </c>
       <c r="N19">
-        <v>12.53677829951572</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>14.66482662983885</v>
+        <v>12.41173466524774</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>14.60646376551587</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.21024152604414</v>
+        <v>20.89940758674356</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.124054486606552</v>
+        <v>2.188188515375372</v>
       </c>
       <c r="E20">
-        <v>30.64909134996</v>
+        <v>29.81845366514458</v>
       </c>
       <c r="F20">
-        <v>41.37516286016347</v>
+        <v>40.73866206721823</v>
       </c>
       <c r="G20">
-        <v>64.1242075098331</v>
+        <v>64.35619853495696</v>
       </c>
       <c r="H20">
-        <v>2.551762378977696</v>
+        <v>2.565378400558407</v>
       </c>
       <c r="I20">
-        <v>3.131181214929068</v>
+        <v>2.998860276337265</v>
       </c>
       <c r="J20">
-        <v>15.96745311094131</v>
+        <v>15.76879731683294</v>
       </c>
       <c r="K20">
-        <v>13.60298125973163</v>
+        <v>13.12651756978388</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.65997695967846</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.655230234500619</v>
       </c>
       <c r="N20">
-        <v>14.25371567164381</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>14.16901720561138</v>
+        <v>14.19198104436927</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>14.20383270944554</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.51351429852306</v>
+        <v>22.07195479777879</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.273597096931061</v>
+        <v>2.067718364285321</v>
       </c>
       <c r="E21">
-        <v>32.19519074328174</v>
+        <v>30.96396037032016</v>
       </c>
       <c r="F21">
-        <v>44.3180697368314</v>
+        <v>42.83551182260135</v>
       </c>
       <c r="G21">
-        <v>68.72042379707952</v>
+        <v>70.09406647363214</v>
       </c>
       <c r="H21">
-        <v>2.878530150140389</v>
+        <v>2.849193437061345</v>
       </c>
       <c r="I21">
-        <v>2.955196457589359</v>
+        <v>2.857683819233475</v>
       </c>
       <c r="J21">
-        <v>17.10420170003119</v>
+        <v>15.02445413164488</v>
       </c>
       <c r="K21">
-        <v>13.3048489626761</v>
+        <v>12.81260689134238</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.47884541916612</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.42752580222384</v>
       </c>
       <c r="N21">
-        <v>15.22048238320303</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>14.22934061518459</v>
+        <v>15.05770514128562</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>14.36158207521468</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.30745680687071</v>
+        <v>22.78455956431038</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.364069311146505</v>
+        <v>1.974157800260264</v>
       </c>
       <c r="E22">
-        <v>33.26722497050728</v>
+        <v>31.75819192304883</v>
       </c>
       <c r="F22">
-        <v>46.1516430591637</v>
+        <v>44.10300739506114</v>
       </c>
       <c r="G22">
-        <v>71.57748502071053</v>
+        <v>73.72258214166494</v>
       </c>
       <c r="H22">
-        <v>3.084115549137482</v>
+        <v>3.026299336868429</v>
       </c>
       <c r="I22">
-        <v>2.833495864793607</v>
+        <v>2.756384565143538</v>
       </c>
       <c r="J22">
-        <v>17.81108576659997</v>
+        <v>14.45325769592612</v>
       </c>
       <c r="K22">
-        <v>13.10575156888419</v>
+        <v>12.60374779956676</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.36514237755315</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.28460389523133</v>
       </c>
       <c r="N22">
-        <v>15.75219697166139</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>14.28087737775419</v>
+        <v>15.51615821794786</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>14.47768047487485</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.91408077625852</v>
+        <v>22.44000554131666</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.318102331575713</v>
+        <v>2.042272065950948</v>
       </c>
       <c r="E23">
-        <v>32.6687932558308</v>
+        <v>31.35279665883217</v>
       </c>
       <c r="F23">
-        <v>45.19248094150171</v>
+        <v>43.52230842112385</v>
       </c>
       <c r="G23">
-        <v>70.08557719564048</v>
+        <v>71.69136522137298</v>
       </c>
       <c r="H23">
-        <v>2.975185869291828</v>
+        <v>2.934301695197044</v>
       </c>
       <c r="I23">
-        <v>2.886585946237891</v>
+        <v>2.795608740451959</v>
       </c>
       <c r="J23">
-        <v>17.44203513149131</v>
+        <v>14.93950856094968</v>
       </c>
       <c r="K23">
-        <v>13.22643315698675</v>
+        <v>12.72823077433588</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.43209403900739</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.373524821618687</v>
       </c>
       <c r="N23">
-        <v>15.46057259712972</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>14.2398509722618</v>
+        <v>15.27766990405684</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>14.39812749758187</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.31050637537334</v>
+        <v>20.9855010313036</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.139289642515588</v>
+        <v>2.209350457438244</v>
       </c>
       <c r="E24">
-        <v>30.41017035328231</v>
+        <v>29.59061081487123</v>
       </c>
       <c r="F24">
-        <v>41.44152176410213</v>
+        <v>40.8042542287201</v>
       </c>
       <c r="G24">
-        <v>64.24795868230643</v>
+        <v>64.45274195214812</v>
       </c>
       <c r="H24">
-        <v>2.558244367334256</v>
+        <v>2.571876728828408</v>
       </c>
       <c r="I24">
-        <v>3.110299345493851</v>
+        <v>2.974829854726772</v>
       </c>
       <c r="J24">
-        <v>15.99890898720135</v>
+        <v>15.81388425534127</v>
       </c>
       <c r="K24">
-        <v>13.66387512623493</v>
+        <v>13.17305039461671</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.69344256206051</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.693155482612697</v>
       </c>
       <c r="N24">
-        <v>14.32974715632885</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>14.11038440880813</v>
+        <v>14.2750974584838</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>14.14928471672917</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.42993590914471</v>
+        <v>19.18206047567081</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.094686829924528</v>
+        <v>2.22068639543188</v>
       </c>
       <c r="E25">
-        <v>27.88341713106448</v>
+        <v>27.08793262667243</v>
       </c>
       <c r="F25">
-        <v>37.17750826228405</v>
+        <v>36.77496913001469</v>
       </c>
       <c r="G25">
-        <v>57.61351165782214</v>
+        <v>57.71798796586934</v>
       </c>
       <c r="H25">
-        <v>2.098776877835457</v>
+        <v>2.15020643010863</v>
       </c>
       <c r="I25">
-        <v>3.36022531849687</v>
+        <v>3.186366189458842</v>
       </c>
       <c r="J25">
-        <v>14.45362224835904</v>
+        <v>14.76838639604425</v>
       </c>
       <c r="K25">
-        <v>14.14647675372462</v>
+        <v>13.63393460926295</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.99136269788411</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.057551223304383</v>
       </c>
       <c r="N25">
-        <v>13.01868970578426</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>13.97943162220169</v>
+        <v>12.94742143477277</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.9386773040795</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
